--- a/Accelerometer and Audio data/IMU and ADXL data/Excel data and plotting program/Excel sheets/Gravel Road_adxl-3200Hz-16g_imu-562Hz-16g.xlsx
+++ b/Accelerometer and Audio data/IMU and ADXL data/Excel data and plotting program/Excel sheets/Gravel Road_adxl-3200Hz-16g_imu-562Hz-16g.xlsx
@@ -501,7 +501,7 @@
         <v>5.88</v>
       </c>
       <c r="E2" t="n">
-        <v>5.054812586670751</v>
+        <v>5.054812586670749</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
@@ -514,7 +514,7 @@
         <v>-7.22</v>
       </c>
       <c r="J2" t="n">
-        <v>1.229360505854781</v>
+        <v>1.229360505854766</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         <v>9.75</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.92151269507242</v>
+        <v>-4.921512695072423</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
@@ -544,7 +544,7 @@
         <v>-5.33</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4798979343514374</v>
+        <v>0.4798979343514324</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>7.12</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.900503119722809</v>
+        <v>-6.900503119722814</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
@@ -574,7 +574,7 @@
         <v>-5.18</v>
       </c>
       <c r="J4" t="n">
-        <v>5.718838934312646</v>
+        <v>5.718838934312651</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>5.879047751251091</v>
+        <v>5.879047751251087</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
@@ -621,7 +621,7 @@
         <v>7.37</v>
       </c>
       <c r="E6" t="n">
-        <v>15.12521186824865</v>
+        <v>15.12521186824866</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -651,7 +651,7 @@
         <v>7.52</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.135704404607726</v>
+        <v>-7.135704404607724</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
@@ -664,7 +664,7 @@
         <v>-5.18</v>
       </c>
       <c r="J7" t="n">
-        <v>19.8067890673808</v>
+        <v>19.80678906738079</v>
       </c>
     </row>
     <row r="8">
@@ -681,7 +681,7 @@
         <v>7.95</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.537541874644825</v>
+        <v>-5.537541874644832</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
@@ -694,7 +694,7 @@
         <v>-4.71</v>
       </c>
       <c r="J8" t="n">
-        <v>10.70684766104907</v>
+        <v>10.70684766104908</v>
       </c>
     </row>
     <row r="9">
@@ -711,7 +711,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>6.82478967732639</v>
+        <v>6.824789677326388</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
@@ -724,7 +724,7 @@
         <v>-5.49</v>
       </c>
       <c r="J9" t="n">
-        <v>14.65111275248891</v>
+        <v>14.6511127524889</v>
       </c>
     </row>
     <row r="10">
@@ -741,7 +741,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>-27.0616320078887</v>
+        <v>-27.06163200788869</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
@@ -754,7 +754,7 @@
         <v>-5.02</v>
       </c>
       <c r="J10" t="n">
-        <v>-16.46924560977673</v>
+        <v>-16.46924560977672</v>
       </c>
     </row>
     <row r="11">
@@ -771,7 +771,7 @@
         <v>8.31</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.442331349979597</v>
+        <v>-0.4423313499796071</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
@@ -784,7 +784,7 @@
         <v>-4.31</v>
       </c>
       <c r="J11" t="n">
-        <v>-7.785838931799958</v>
+        <v>-7.785838931799961</v>
       </c>
     </row>
     <row r="12">
@@ -801,7 +801,7 @@
         <v>8.31</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.617319274907855</v>
+        <v>-1.617319274907858</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
@@ -844,7 +844,7 @@
         <v>-5.02</v>
       </c>
       <c r="J13" t="n">
-        <v>4.560708548135967</v>
+        <v>4.560708548135952</v>
       </c>
     </row>
     <row r="14">
@@ -861,7 +861,7 @@
         <v>8.31</v>
       </c>
       <c r="E14" t="n">
-        <v>2.303399815803399</v>
+        <v>2.303399815803378</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
@@ -891,7 +891,7 @@
         <v>7.87</v>
       </c>
       <c r="E15" t="n">
-        <v>8.031917038786565</v>
+        <v>8.031917038786567</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
@@ -904,7 +904,7 @@
         <v>-4.94</v>
       </c>
       <c r="J15" t="n">
-        <v>11.97755330844466</v>
+        <v>11.97755330844467</v>
       </c>
     </row>
     <row r="16">
@@ -921,7 +921,7 @@
         <v>8.44</v>
       </c>
       <c r="E16" t="n">
-        <v>27.62062491404171</v>
+        <v>27.6206249140417</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
@@ -964,7 +964,7 @@
         <v>-4.16</v>
       </c>
       <c r="J17" t="n">
-        <v>-20.93494775759148</v>
+        <v>-20.93494775759149</v>
       </c>
     </row>
     <row r="18">
@@ -981,7 +981,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08974794393339304</v>
+        <v>0.08974794393339242</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
@@ -994,7 +994,7 @@
         <v>-5.41</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.360915254806363</v>
+        <v>-9.360915254806352</v>
       </c>
     </row>
     <row r="19">
@@ -1011,7 +1011,7 @@
         <v>7.51</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5668969874111819</v>
+        <v>-0.5668969874111844</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
@@ -1054,7 +1054,7 @@
         <v>-4.31</v>
       </c>
       <c r="J20" t="n">
-        <v>30.60583989551741</v>
+        <v>30.60583989551742</v>
       </c>
     </row>
     <row r="21">
@@ -1071,7 +1071,7 @@
         <v>8.01</v>
       </c>
       <c r="E21" t="n">
-        <v>4.129822480590883</v>
+        <v>4.129822480590888</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
@@ -1084,7 +1084,7 @@
         <v>-5.02</v>
       </c>
       <c r="J21" t="n">
-        <v>-13.23493930725802</v>
+        <v>-13.23493930725803</v>
       </c>
     </row>
     <row r="22">
@@ -1101,7 +1101,7 @@
         <v>8.1</v>
       </c>
       <c r="E22" t="n">
-        <v>-5.805589132263264</v>
+        <v>-5.805589132263258</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
@@ -1114,7 +1114,7 @@
         <v>73.43000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>7.627684312179069</v>
+        <v>7.627684312179064</v>
       </c>
     </row>
     <row r="23">
@@ -1131,7 +1131,7 @@
         <v>-86.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-33.66465530360143</v>
+        <v>-33.66465530360144</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
@@ -1144,7 +1144,7 @@
         <v>-8.710000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>-24.25616502111233</v>
+        <v>-24.25616502111234</v>
       </c>
     </row>
     <row r="24">
@@ -1174,7 +1174,7 @@
         <v>-9.02</v>
       </c>
       <c r="J24" t="n">
-        <v>-26.64220527657647</v>
+        <v>-26.64220527657646</v>
       </c>
     </row>
     <row r="25">
@@ -1191,7 +1191,7 @@
         <v>25.7</v>
       </c>
       <c r="E25" t="n">
-        <v>8.463988555859736</v>
+        <v>8.463988555859746</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
@@ -1204,7 +1204,7 @@
         <v>-15.61</v>
       </c>
       <c r="J25" t="n">
-        <v>4.711319371098095</v>
+        <v>4.711319371098105</v>
       </c>
     </row>
     <row r="26">
@@ -1221,7 +1221,7 @@
         <v>14.66</v>
       </c>
       <c r="E26" t="n">
-        <v>-10.48160918739537</v>
+        <v>-10.48160918739536</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
@@ -1251,7 +1251,7 @@
         <v>4.15</v>
       </c>
       <c r="E27" t="n">
-        <v>-15.24412680088611</v>
+        <v>-15.24412680088612</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
@@ -1264,7 +1264,7 @@
         <v>-8.08</v>
       </c>
       <c r="J27" t="n">
-        <v>-21.60608928405679</v>
+        <v>-21.6060892840568</v>
       </c>
     </row>
     <row r="28">
@@ -1281,7 +1281,7 @@
         <v>4.19</v>
       </c>
       <c r="E28" t="n">
-        <v>-16.38213469218841</v>
+        <v>-16.38213469218842</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
@@ -1294,7 +1294,7 @@
         <v>-1.02</v>
       </c>
       <c r="J28" t="n">
-        <v>-16.10398321160486</v>
+        <v>-16.10398321160487</v>
       </c>
     </row>
     <row r="29">
@@ -1324,7 +1324,7 @@
         <v>1.96</v>
       </c>
       <c r="J29" t="n">
-        <v>2.17558328936312</v>
+        <v>2.175583289363128</v>
       </c>
     </row>
     <row r="30">
@@ -1341,7 +1341,7 @@
         <v>8.31</v>
       </c>
       <c r="E30" t="n">
-        <v>19.36787620657843</v>
+        <v>19.36787620657844</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
@@ -1354,7 +1354,7 @@
         <v>2.59</v>
       </c>
       <c r="J30" t="n">
-        <v>-26.62026440502779</v>
+        <v>-26.62026440502776</v>
       </c>
     </row>
     <row r="31">
@@ -1384,7 +1384,7 @@
         <v>-0.86</v>
       </c>
       <c r="J31" t="n">
-        <v>17.65858562444247</v>
+        <v>17.65858562444248</v>
       </c>
     </row>
     <row r="32">
@@ -1401,7 +1401,7 @@
         <v>7.44</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3480865748234616</v>
+        <v>-0.3480865748234628</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
@@ -1414,7 +1414,7 @@
         <v>0.47</v>
       </c>
       <c r="J32" t="n">
-        <v>-39.24527239988216</v>
+        <v>-39.24527239988217</v>
       </c>
     </row>
     <row r="33">
@@ -1444,7 +1444,7 @@
         <v>-7.61</v>
       </c>
       <c r="J33" t="n">
-        <v>-10.52105913676822</v>
+        <v>-10.52105913676823</v>
       </c>
     </row>
     <row r="34">
@@ -1461,7 +1461,7 @@
         <v>12.05</v>
       </c>
       <c r="E34" t="n">
-        <v>14.2128063029714</v>
+        <v>14.21280630297141</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
@@ -1474,7 +1474,7 @@
         <v>-0.86</v>
       </c>
       <c r="J34" t="n">
-        <v>49.23266420043407</v>
+        <v>49.23266420043408</v>
       </c>
     </row>
     <row r="35">
@@ -1504,7 +1504,7 @@
         <v>-0.08</v>
       </c>
       <c r="J35" t="n">
-        <v>13.07801225062944</v>
+        <v>13.07801225062943</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         <v>0.09</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.22774268334621</v>
+        <v>-21.22774268334622</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
@@ -1534,7 +1534,7 @@
         <v>10.59</v>
       </c>
       <c r="J36" t="n">
-        <v>-12.04479953596539</v>
+        <v>-12.04479953596538</v>
       </c>
     </row>
     <row r="37">
@@ -1581,7 +1581,7 @@
         <v>4.17</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.986954169452359</v>
+        <v>-3.986954169452358</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
@@ -1594,7 +1594,7 @@
         <v>6.75</v>
       </c>
       <c r="J38" t="n">
-        <v>28.97669017808984</v>
+        <v>28.97669017808985</v>
       </c>
     </row>
     <row r="39">
@@ -1624,7 +1624,7 @@
         <v>6.12</v>
       </c>
       <c r="J39" t="n">
-        <v>8.771976297523766</v>
+        <v>8.771976297523775</v>
       </c>
     </row>
     <row r="40">
@@ -1641,7 +1641,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>4.531665374547322</v>
+        <v>4.531665374547321</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
@@ -1654,7 +1654,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>6.931097042858509</v>
+        <v>6.931097042858521</v>
       </c>
     </row>
     <row r="41">
@@ -1684,7 +1684,7 @@
         <v>19.53</v>
       </c>
       <c r="J41" t="n">
-        <v>-37.16250707509931</v>
+        <v>-37.16250707509933</v>
       </c>
     </row>
     <row r="42">
@@ -1714,7 +1714,7 @@
         <v>-39.7</v>
       </c>
       <c r="J42" t="n">
-        <v>24.98550755493823</v>
+        <v>24.98550755493822</v>
       </c>
     </row>
     <row r="43">
@@ -1731,7 +1731,7 @@
         <v>-1.56</v>
       </c>
       <c r="E43" t="n">
-        <v>-33.24258443054816</v>
+        <v>-33.24258443054815</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
@@ -1744,7 +1744,7 @@
         <v>7.3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.434448347276037</v>
+        <v>3.434448347276034</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>20.55</v>
       </c>
       <c r="J46" t="n">
-        <v>-33.68657373653522</v>
+        <v>-33.68657373653521</v>
       </c>
     </row>
     <row r="47">
@@ -1851,7 +1851,7 @@
         <v>1.96</v>
       </c>
       <c r="E47" t="n">
-        <v>25.76166913845228</v>
+        <v>25.76166913845227</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
@@ -1864,7 +1864,7 @@
         <v>23.54</v>
       </c>
       <c r="J47" t="n">
-        <v>16.22899769746661</v>
+        <v>16.2289976974666</v>
       </c>
     </row>
     <row r="48">
@@ -1881,7 +1881,7 @@
         <v>17.72</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.148240070049532</v>
+        <v>-7.148240070049528</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
@@ -1894,7 +1894,7 @@
         <v>0.31</v>
       </c>
       <c r="J48" t="n">
-        <v>-6.950805823087977</v>
+        <v>-6.950805823087968</v>
       </c>
     </row>
     <row r="49">
@@ -1924,7 +1924,7 @@
         <v>-39.38</v>
       </c>
       <c r="J49" t="n">
-        <v>-16.85829829724387</v>
+        <v>-16.85829829724383</v>
       </c>
     </row>
     <row r="50">
@@ -1941,7 +1941,7 @@
         <v>35.86</v>
       </c>
       <c r="E50" t="n">
-        <v>-8.553200496135499</v>
+        <v>-8.553200496135506</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
@@ -1954,7 +1954,7 @@
         <v>10.04</v>
       </c>
       <c r="J50" t="n">
-        <v>12.43167664262057</v>
+        <v>12.43167664262056</v>
       </c>
     </row>
     <row r="51">
@@ -2001,7 +2001,7 @@
         <v>56.28</v>
       </c>
       <c r="E52" t="n">
-        <v>57.23846456003822</v>
+        <v>57.23846456003821</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
@@ -2014,7 +2014,7 @@
         <v>14.04</v>
       </c>
       <c r="J52" t="n">
-        <v>9.417292499427406</v>
+        <v>9.417292499427402</v>
       </c>
     </row>
     <row r="53">
@@ -2061,7 +2061,7 @@
         <v>-4.27</v>
       </c>
       <c r="E54" t="n">
-        <v>8.532682659710416</v>
+        <v>8.532682659710421</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
@@ -2074,7 +2074,7 @@
         <v>16.24</v>
       </c>
       <c r="J54" t="n">
-        <v>-2.127420838797871</v>
+        <v>-2.127420838797863</v>
       </c>
     </row>
     <row r="55">
@@ -2104,7 +2104,7 @@
         <v>-15.69</v>
       </c>
       <c r="J55" t="n">
-        <v>-9.937209027721844</v>
+        <v>-9.937209027721842</v>
       </c>
     </row>
     <row r="56">
@@ -2134,7 +2134,7 @@
         <v>14.59</v>
       </c>
       <c r="J56" t="n">
-        <v>21.90397893994339</v>
+        <v>21.9039789399434</v>
       </c>
     </row>
     <row r="57">
@@ -2164,7 +2164,7 @@
         <v>-64.02</v>
       </c>
       <c r="J57" t="n">
-        <v>-44.42890785703826</v>
+        <v>-44.42890785703828</v>
       </c>
     </row>
     <row r="58">
@@ -2181,7 +2181,7 @@
         <v>-4.7</v>
       </c>
       <c r="E58" t="n">
-        <v>3.894397848373986</v>
+        <v>3.894397848373996</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
@@ -2211,7 +2211,7 @@
         <v>29.33</v>
       </c>
       <c r="E59" t="n">
-        <v>71.22620928961427</v>
+        <v>71.22620928961426</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
@@ -2224,7 +2224,7 @@
         <v>53.98</v>
       </c>
       <c r="J59" t="n">
-        <v>18.4993037661184</v>
+        <v>18.49930376611841</v>
       </c>
     </row>
     <row r="60">
@@ -2254,7 +2254,7 @@
         <v>9.890000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>-29.14470343458274</v>
+        <v>-29.14470343458275</v>
       </c>
     </row>
     <row r="61">
@@ -2284,7 +2284,7 @@
         <v>-9.890000000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>99.3876521482516</v>
+        <v>99.38765214825156</v>
       </c>
     </row>
     <row r="62">
@@ -2314,7 +2314,7 @@
         <v>43.54</v>
       </c>
       <c r="J62" t="n">
-        <v>24.40746794912285</v>
+        <v>24.40746794912286</v>
       </c>
     </row>
     <row r="63">
@@ -2331,7 +2331,7 @@
         <v>95.20999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>66.68577275596471</v>
+        <v>66.68577275596469</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
@@ -2344,7 +2344,7 @@
         <v>26.83</v>
       </c>
       <c r="J63" t="n">
-        <v>-2.611597078113017</v>
+        <v>-2.611597078113012</v>
       </c>
     </row>
     <row r="64">
@@ -2361,7 +2361,7 @@
         <v>20.78</v>
       </c>
       <c r="E64" t="n">
-        <v>19.62854115903445</v>
+        <v>19.62854115903446</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
@@ -2374,7 +2374,7 @@
         <v>30.83</v>
       </c>
       <c r="J64" t="n">
-        <v>3.257352508200397</v>
+        <v>3.25735250820039</v>
       </c>
     </row>
     <row r="65">
@@ -2391,7 +2391,7 @@
         <v>5.75</v>
       </c>
       <c r="E65" t="n">
-        <v>-28.27906180663821</v>
+        <v>-28.2790618066382</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
@@ -2404,7 +2404,7 @@
         <v>30.52</v>
       </c>
       <c r="J65" t="n">
-        <v>15.47585158832286</v>
+        <v>15.47585158832287</v>
       </c>
     </row>
     <row r="66">
@@ -2434,7 +2434,7 @@
         <v>-86.45999999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>69.77916823535982</v>
+        <v>69.77916823535983</v>
       </c>
     </row>
     <row r="67">
@@ -2464,7 +2464,7 @@
         <v>30.83</v>
       </c>
       <c r="J67" t="n">
-        <v>49.16411819233496</v>
+        <v>49.16411819233495</v>
       </c>
     </row>
     <row r="68">
@@ -2481,7 +2481,7 @@
         <v>26</v>
       </c>
       <c r="E68" t="n">
-        <v>16.44232565494646</v>
+        <v>16.44232565494647</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
@@ -2494,7 +2494,7 @@
         <v>30.13</v>
       </c>
       <c r="J68" t="n">
-        <v>-59.88974509603294</v>
+        <v>-59.88974509603292</v>
       </c>
     </row>
     <row r="69">
@@ -2524,7 +2524,7 @@
         <v>49.27</v>
       </c>
       <c r="J69" t="n">
-        <v>-7.375055934484889</v>
+        <v>-7.375055934484888</v>
       </c>
     </row>
     <row r="70">
@@ -2554,7 +2554,7 @@
         <v>25.11</v>
       </c>
       <c r="J70" t="n">
-        <v>21.34115154367616</v>
+        <v>21.34115154367617</v>
       </c>
     </row>
     <row r="71">
@@ -2601,7 +2601,7 @@
         <v>-39.8</v>
       </c>
       <c r="E72" t="n">
-        <v>-27.18076777948142</v>
+        <v>-27.18076777948143</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
@@ -2614,7 +2614,7 @@
         <v>12.79</v>
       </c>
       <c r="J72" t="n">
-        <v>33.09304547955411</v>
+        <v>33.09304547955409</v>
       </c>
     </row>
     <row r="73">
@@ -2644,7 +2644,7 @@
         <v>3.14</v>
       </c>
       <c r="J73" t="n">
-        <v>-25.35930450071388</v>
+        <v>-25.35930450071386</v>
       </c>
     </row>
     <row r="74">
@@ -2691,7 +2691,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>28.05177505244456</v>
+        <v>28.05177505244455</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
@@ -2721,7 +2721,7 @@
         <v>20.71</v>
       </c>
       <c r="E76" t="n">
-        <v>13.94935973713099</v>
+        <v>13.949359737131</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
@@ -2734,7 +2734,7 @@
         <v>98.62</v>
       </c>
       <c r="J76" t="n">
-        <v>-95.132199493367</v>
+        <v>-95.13219949336697</v>
       </c>
     </row>
     <row r="77">
@@ -2794,7 +2794,7 @@
         <v>82.69</v>
       </c>
       <c r="J78" t="n">
-        <v>-52.25607806922945</v>
+        <v>-52.25607806922947</v>
       </c>
     </row>
     <row r="79">
@@ -2811,7 +2811,7 @@
         <v>-12.49</v>
       </c>
       <c r="E79" t="n">
-        <v>13.90934376652815</v>
+        <v>13.90934376652816</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
@@ -2824,7 +2824,7 @@
         <v>5.1</v>
       </c>
       <c r="J79" t="n">
-        <v>-58.1041113069252</v>
+        <v>-58.10411130692519</v>
       </c>
     </row>
     <row r="80">
@@ -2841,7 +2841,7 @@
         <v>-62.5</v>
       </c>
       <c r="E80" t="n">
-        <v>28.24686852707836</v>
+        <v>28.24686852707837</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
@@ -2884,7 +2884,7 @@
         <v>2.9</v>
       </c>
       <c r="J81" t="n">
-        <v>-6.362000248820139</v>
+        <v>-6.362000248820136</v>
       </c>
     </row>
     <row r="82">
@@ -2901,7 +2901,7 @@
         <v>4.54</v>
       </c>
       <c r="E82" t="n">
-        <v>6.140793066456192</v>
+        <v>6.140793066456203</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
@@ -2914,7 +2914,7 @@
         <v>-160.67</v>
       </c>
       <c r="J82" t="n">
-        <v>-97.75868671946672</v>
+        <v>-97.75868671946671</v>
       </c>
     </row>
     <row r="83">
@@ -2961,7 +2961,7 @@
         <v>-42.08</v>
       </c>
       <c r="E84" t="n">
-        <v>-44.30453591658104</v>
+        <v>-44.30453591658103</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
@@ -2974,7 +2974,7 @@
         <v>41.82</v>
       </c>
       <c r="J84" t="n">
-        <v>5.485459669168023</v>
+        <v>5.485459669168002</v>
       </c>
     </row>
     <row r="85">
@@ -2991,7 +2991,7 @@
         <v>8.58</v>
       </c>
       <c r="E85" t="n">
-        <v>-8.109027073463659</v>
+        <v>-8.109027073463668</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
@@ -3064,7 +3064,7 @@
         <v>5.49</v>
       </c>
       <c r="J87" t="n">
-        <v>-38.71717146236553</v>
+        <v>-38.71717146236552</v>
       </c>
     </row>
     <row r="88">
@@ -3094,7 +3094,7 @@
         <v>4.39</v>
       </c>
       <c r="J88" t="n">
-        <v>58.89102813956725</v>
+        <v>58.89102813956727</v>
       </c>
     </row>
     <row r="89">
@@ -3111,7 +3111,7 @@
         <v>-1.21</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.2019877665844155</v>
+        <v>-0.2019877665844117</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
@@ -3124,7 +3124,7 @@
         <v>19.69</v>
       </c>
       <c r="J89" t="n">
-        <v>21.40980818164815</v>
+        <v>21.40980818164816</v>
       </c>
     </row>
     <row r="90">
@@ -3184,7 +3184,7 @@
         <v>1.8</v>
       </c>
       <c r="J91" t="n">
-        <v>-97.85516161029129</v>
+        <v>-97.85516161029126</v>
       </c>
     </row>
     <row r="92">
@@ -3214,7 +3214,7 @@
         <v>126.86</v>
       </c>
       <c r="J92" t="n">
-        <v>159.1618820670378</v>
+        <v>159.1618820670379</v>
       </c>
     </row>
     <row r="93">
@@ -3274,7 +3274,7 @@
         <v>10.36</v>
       </c>
       <c r="J94" t="n">
-        <v>65.61780119892137</v>
+        <v>65.61780119892136</v>
       </c>
     </row>
     <row r="95">
@@ -3321,7 +3321,7 @@
         <v>3.39</v>
       </c>
       <c r="E96" t="n">
-        <v>2.46582144401307</v>
+        <v>2.46582144401306</v>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
@@ -3351,7 +3351,7 @@
         <v>13.95</v>
       </c>
       <c r="E97" t="n">
-        <v>7.894649576375212</v>
+        <v>7.894649576375216</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
@@ -3364,7 +3364,7 @@
         <v>44.17</v>
       </c>
       <c r="J97" t="n">
-        <v>-3.284085125157708</v>
+        <v>-3.284085125157695</v>
       </c>
     </row>
     <row r="98">
@@ -3454,7 +3454,7 @@
         <v>-2.59</v>
       </c>
       <c r="J100" t="n">
-        <v>-63.50502745423244</v>
+        <v>-63.50502745423245</v>
       </c>
     </row>
     <row r="101">
@@ -3471,7 +3471,7 @@
         <v>8.06</v>
       </c>
       <c r="E101" t="n">
-        <v>-25.14731203768563</v>
+        <v>-25.14731203768562</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
@@ -3574,7 +3574,7 @@
         <v>-114.7</v>
       </c>
       <c r="J104" t="n">
-        <v>-270.899393126542</v>
+        <v>-270.8993931265421</v>
       </c>
     </row>
     <row r="105">
@@ -3591,7 +3591,7 @@
         <v>-38.31</v>
       </c>
       <c r="E105" t="n">
-        <v>-19.34230017686221</v>
+        <v>-19.3423001768622</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
@@ -3604,7 +3604,7 @@
         <v>10.04</v>
       </c>
       <c r="J105" t="n">
-        <v>43.40708254434153</v>
+        <v>43.40708254434151</v>
       </c>
     </row>
     <row r="106">
@@ -3651,7 +3651,7 @@
         <v>49.97</v>
       </c>
       <c r="E107" t="n">
-        <v>-61.37932078025339</v>
+        <v>-61.37932078025338</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
@@ -3711,7 +3711,7 @@
         <v>-55.02</v>
       </c>
       <c r="E109" t="n">
-        <v>-47.18811820917852</v>
+        <v>-47.18811820917854</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
@@ -3724,7 +3724,7 @@
         <v>-35.15</v>
       </c>
       <c r="J109" t="n">
-        <v>58.43764874404268</v>
+        <v>58.43764874404266</v>
       </c>
     </row>
     <row r="110">
@@ -3801,7 +3801,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>-13.54385824020639</v>
+        <v>-13.54385824020638</v>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
@@ -3891,7 +3891,7 @@
         <v>-41.6</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.942323423973873</v>
+        <v>-1.942323423973865</v>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
@@ -3921,7 +3921,7 @@
         <v>-22.22</v>
       </c>
       <c r="E116" t="n">
-        <v>6.404807491486659</v>
+        <v>6.404807491486645</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
@@ -3934,7 +3934,7 @@
         <v>25.58</v>
       </c>
       <c r="J116" t="n">
-        <v>15.47384005924413</v>
+        <v>15.47384005924409</v>
       </c>
     </row>
     <row r="117">
@@ -3964,7 +3964,7 @@
         <v>0.55</v>
       </c>
       <c r="J117" t="n">
-        <v>37.25488710290477</v>
+        <v>37.2548871029048</v>
       </c>
     </row>
     <row r="118">
@@ -3994,7 +3994,7 @@
         <v>-44.09</v>
       </c>
       <c r="J118" t="n">
-        <v>-6.43409203266291</v>
+        <v>-6.43409203266292</v>
       </c>
     </row>
     <row r="119">
@@ -4011,7 +4011,7 @@
         <v>34.9</v>
       </c>
       <c r="E119" t="n">
-        <v>-4.075834316433929</v>
+        <v>-4.075834316433919</v>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
@@ -4054,7 +4054,7 @@
         <v>26.83</v>
       </c>
       <c r="J120" t="n">
-        <v>-50.27846234892</v>
+        <v>-50.27846234891999</v>
       </c>
     </row>
     <row r="121">
@@ -4144,7 +4144,7 @@
         <v>12.94</v>
       </c>
       <c r="J123" t="n">
-        <v>13.40852743359813</v>
+        <v>13.40852743359814</v>
       </c>
     </row>
     <row r="124">
@@ -4161,7 +4161,7 @@
         <v>10.08</v>
       </c>
       <c r="E124" t="n">
-        <v>32.75799126682388</v>
+        <v>32.75799126682389</v>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
@@ -4191,7 +4191,7 @@
         <v>83.03</v>
       </c>
       <c r="E125" t="n">
-        <v>20.40449692416511</v>
+        <v>20.4044969241651</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
@@ -4234,7 +4234,7 @@
         <v>40.4</v>
       </c>
       <c r="J126" t="n">
-        <v>-62.59545550359443</v>
+        <v>-62.59545550359442</v>
       </c>
     </row>
     <row r="127">
@@ -4251,7 +4251,7 @@
         <v>-79.37</v>
       </c>
       <c r="E127" t="n">
-        <v>-56.28670308100158</v>
+        <v>-56.2867030810016</v>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
@@ -4281,7 +4281,7 @@
         <v>-9.65</v>
       </c>
       <c r="E128" t="n">
-        <v>-21.61237550619923</v>
+        <v>-21.61237550619924</v>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
@@ -4294,7 +4294,7 @@
         <v>37.81</v>
       </c>
       <c r="J128" t="n">
-        <v>36.03512588621286</v>
+        <v>36.0351258862129</v>
       </c>
     </row>
     <row r="129">
@@ -4311,7 +4311,7 @@
         <v>18.96</v>
       </c>
       <c r="E129" t="n">
-        <v>22.41209068066869</v>
+        <v>22.41209068066868</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
@@ -4324,7 +4324,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="J129" t="n">
-        <v>-8.727376664508732</v>
+        <v>-8.727376664508716</v>
       </c>
     </row>
     <row r="130">
@@ -4341,7 +4341,7 @@
         <v>-0.27</v>
       </c>
       <c r="E130" t="n">
-        <v>32.06870417754997</v>
+        <v>32.06870417754995</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
@@ -4354,7 +4354,7 @@
         <v>-160.67</v>
       </c>
       <c r="J130" t="n">
-        <v>-37.40043460504118</v>
+        <v>-37.40043460504119</v>
       </c>
     </row>
     <row r="131">
@@ -4371,7 +4371,7 @@
         <v>-24.85</v>
       </c>
       <c r="E131" t="n">
-        <v>25.44321610485336</v>
+        <v>25.44321610485335</v>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
@@ -4401,7 +4401,7 @@
         <v>15.26</v>
       </c>
       <c r="E132" t="n">
-        <v>3.921962824025266</v>
+        <v>3.921962824025265</v>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
@@ -4431,7 +4431,7 @@
         <v>-11.33</v>
       </c>
       <c r="E133" t="n">
-        <v>-29.46322873896596</v>
+        <v>-29.46322873896595</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
@@ -4444,7 +4444,7 @@
         <v>2.59</v>
       </c>
       <c r="J133" t="n">
-        <v>-26.42782933851671</v>
+        <v>-26.42782933851672</v>
       </c>
     </row>
     <row r="134">
@@ -4474,7 +4474,7 @@
         <v>-143.26</v>
       </c>
       <c r="J134" t="n">
-        <v>54.64755906331633</v>
+        <v>54.64755906331634</v>
       </c>
     </row>
     <row r="135">
@@ -4504,7 +4504,7 @@
         <v>38.6</v>
       </c>
       <c r="J135" t="n">
-        <v>26.71509404957633</v>
+        <v>26.71509404957632</v>
       </c>
     </row>
     <row r="136">
@@ -4521,7 +4521,7 @@
         <v>22.74</v>
       </c>
       <c r="E136" t="n">
-        <v>-19.00177641891536</v>
+        <v>-19.00177641891535</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
@@ -4534,7 +4534,7 @@
         <v>160.59</v>
       </c>
       <c r="J136" t="n">
-        <v>76.62203531975852</v>
+        <v>76.62203531975851</v>
       </c>
     </row>
     <row r="137">
@@ -4551,7 +4551,7 @@
         <v>-41.77</v>
       </c>
       <c r="E137" t="n">
-        <v>-59.43223413523934</v>
+        <v>-59.43223413523933</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
@@ -4641,7 +4641,7 @@
         <v>23.71</v>
       </c>
       <c r="E140" t="n">
-        <v>2.754125989516553</v>
+        <v>2.754125989516551</v>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
@@ -4701,7 +4701,7 @@
         <v>-26.94</v>
       </c>
       <c r="E142" t="n">
-        <v>1.264074822391166</v>
+        <v>1.264074822391172</v>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
@@ -4714,7 +4714,7 @@
         <v>36.56</v>
       </c>
       <c r="J142" t="n">
-        <v>-14.35716314914908</v>
+        <v>-14.35716314914912</v>
       </c>
     </row>
     <row r="143">
@@ -4731,7 +4731,7 @@
         <v>21.81</v>
       </c>
       <c r="E143" t="n">
-        <v>33.61381463090131</v>
+        <v>33.6138146309013</v>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
@@ -4744,7 +4744,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="J143" t="n">
-        <v>56.29061282809578</v>
+        <v>56.29061282809576</v>
       </c>
     </row>
     <row r="144">
@@ -4761,7 +4761,7 @@
         <v>27.22</v>
       </c>
       <c r="E144" t="n">
-        <v>17.14757501612882</v>
+        <v>17.14757501612883</v>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
@@ -4774,7 +4774,7 @@
         <v>-98.69</v>
       </c>
       <c r="J144" t="n">
-        <v>-6.848118736345785</v>
+        <v>-6.848118736345815</v>
       </c>
     </row>
     <row r="145">
@@ -4791,7 +4791,7 @@
         <v>-1.04</v>
       </c>
       <c r="E145" t="n">
-        <v>-15.67647301154508</v>
+        <v>-15.67647301154506</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
@@ -4804,7 +4804,7 @@
         <v>-38.36</v>
       </c>
       <c r="J145" t="n">
-        <v>5.394491391366829</v>
+        <v>5.394491391366839</v>
       </c>
     </row>
     <row r="146">
@@ -4834,7 +4834,7 @@
         <v>28.79</v>
       </c>
       <c r="J146" t="n">
-        <v>9.373736231046472</v>
+        <v>9.373736231046493</v>
       </c>
     </row>
     <row r="147">
@@ -4851,7 +4851,7 @@
         <v>43.7</v>
       </c>
       <c r="E147" t="n">
-        <v>10.20383653088138</v>
+        <v>10.20383653088137</v>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
@@ -4881,7 +4881,7 @@
         <v>-12.03</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.4792500763886905</v>
+        <v>-0.4792500763886917</v>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
@@ -4894,7 +4894,7 @@
         <v>23.54</v>
       </c>
       <c r="J148" t="n">
-        <v>-3.556720321591798</v>
+        <v>-3.556720321591807</v>
       </c>
     </row>
     <row r="149">
@@ -4924,7 +4924,7 @@
         <v>67.78</v>
       </c>
       <c r="J149" t="n">
-        <v>7.105026442955791</v>
+        <v>7.105026442955783</v>
       </c>
     </row>
     <row r="150">
@@ -4954,7 +4954,7 @@
         <v>24.95</v>
       </c>
       <c r="J150" t="n">
-        <v>6.218522336067678</v>
+        <v>6.218522336067657</v>
       </c>
     </row>
     <row r="151">
@@ -4984,7 +4984,7 @@
         <v>32.24</v>
       </c>
       <c r="J151" t="n">
-        <v>-4.267055903562226</v>
+        <v>-4.267055903562224</v>
       </c>
     </row>
     <row r="152">
@@ -5001,7 +5001,7 @@
         <v>-35.51</v>
       </c>
       <c r="E152" t="n">
-        <v>-10.78496472948382</v>
+        <v>-10.78496472948383</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
@@ -5014,7 +5014,7 @@
         <v>-4</v>
       </c>
       <c r="J152" t="n">
-        <v>34.85557734522303</v>
+        <v>34.85557734522301</v>
       </c>
     </row>
     <row r="153">
@@ -5044,7 +5044,7 @@
         <v>30.52</v>
       </c>
       <c r="J153" t="n">
-        <v>33.752264820558</v>
+        <v>33.75226482055801</v>
       </c>
     </row>
     <row r="154">
@@ -5061,7 +5061,7 @@
         <v>-33.35</v>
       </c>
       <c r="E154" t="n">
-        <v>3.915598395156301</v>
+        <v>3.915598395156303</v>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
@@ -5074,7 +5074,7 @@
         <v>58.29</v>
       </c>
       <c r="J154" t="n">
-        <v>-0.7832523402562502</v>
+        <v>-0.7832523402562528</v>
       </c>
     </row>
     <row r="155">
@@ -5091,7 +5091,7 @@
         <v>42.59</v>
       </c>
       <c r="E155" t="n">
-        <v>-9.748451869013321</v>
+        <v>-9.748451869013325</v>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
@@ -5104,7 +5104,7 @@
         <v>36.01</v>
       </c>
       <c r="J155" t="n">
-        <v>-1.144909348674942</v>
+        <v>-1.144909348674949</v>
       </c>
     </row>
     <row r="156">
@@ -5121,7 +5121,7 @@
         <v>0.11</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.18915672066639</v>
+        <v>-7.189156720666391</v>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
@@ -5134,7 +5134,7 @@
         <v>19.46</v>
       </c>
       <c r="J156" t="n">
-        <v>18.76921822740666</v>
+        <v>18.76921822740665</v>
       </c>
     </row>
     <row r="157">
@@ -5151,7 +5151,7 @@
         <v>42.78</v>
       </c>
       <c r="E157" t="n">
-        <v>18.0836346313264</v>
+        <v>18.08363463132639</v>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
@@ -5164,7 +5164,7 @@
         <v>39.93</v>
       </c>
       <c r="J157" t="n">
-        <v>6.311346821319884</v>
+        <v>6.311346821319868</v>
       </c>
     </row>
     <row r="158">
@@ -5194,7 +5194,7 @@
         <v>22.2</v>
       </c>
       <c r="J158" t="n">
-        <v>-31.4854995861429</v>
+        <v>-31.48549958614289</v>
       </c>
     </row>
     <row r="159">
@@ -5211,7 +5211,7 @@
         <v>-11.67</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.3793913415521906</v>
+        <v>-0.3793913415521956</v>
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
@@ -5254,7 +5254,7 @@
         <v>-34.91</v>
       </c>
       <c r="J160" t="n">
-        <v>-4.050632880291722</v>
+        <v>-4.050632880291752</v>
       </c>
     </row>
     <row r="161">
@@ -5271,7 +5271,7 @@
         <v>-27.33</v>
       </c>
       <c r="E161" t="n">
-        <v>-3.335583339126643</v>
+        <v>-3.335583339126639</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
@@ -5284,7 +5284,7 @@
         <v>30.44</v>
       </c>
       <c r="J161" t="n">
-        <v>-0.3372328392076674</v>
+        <v>-0.3372328392076687</v>
       </c>
     </row>
     <row r="162">
@@ -5314,7 +5314,7 @@
         <v>42.05</v>
       </c>
       <c r="J162" t="n">
-        <v>4.970622625428978</v>
+        <v>4.970622625428976</v>
       </c>
     </row>
     <row r="163">
@@ -5391,7 +5391,7 @@
         <v>10.23</v>
       </c>
       <c r="E165" t="n">
-        <v>-5.760019547382081</v>
+        <v>-5.760019547382075</v>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
@@ -5434,7 +5434,7 @@
         <v>18.51</v>
       </c>
       <c r="J166" t="n">
-        <v>3.35269811136952</v>
+        <v>3.352698111369516</v>
       </c>
     </row>
     <row r="167">
@@ -5494,7 +5494,7 @@
         <v>-49.66</v>
       </c>
       <c r="J168" t="n">
-        <v>41.87397862556416</v>
+        <v>41.87397862556419</v>
       </c>
     </row>
     <row r="169">
@@ -5511,7 +5511,7 @@
         <v>6.77</v>
       </c>
       <c r="E169" t="n">
-        <v>-30.98467795319397</v>
+        <v>-30.98467795319396</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
@@ -5571,7 +5571,7 @@
         <v>3.38</v>
       </c>
       <c r="E171" t="n">
-        <v>-3.081146942062232</v>
+        <v>-3.081146942062241</v>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
@@ -5584,7 +5584,7 @@
         <v>-2.82</v>
       </c>
       <c r="J171" t="n">
-        <v>24.88287163136811</v>
+        <v>24.88287163136812</v>
       </c>
     </row>
     <row r="172">
@@ -5601,7 +5601,7 @@
         <v>-0.26</v>
       </c>
       <c r="E172" t="n">
-        <v>9.695869010183698</v>
+        <v>9.695869010183687</v>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
@@ -5631,7 +5631,7 @@
         <v>3.57</v>
       </c>
       <c r="E173" t="n">
-        <v>-19.86375501220389</v>
+        <v>-19.86375501220388</v>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
@@ -5644,7 +5644,7 @@
         <v>-1.49</v>
       </c>
       <c r="J173" t="n">
-        <v>-6.392094314790193</v>
+        <v>-6.39209431479021</v>
       </c>
     </row>
     <row r="174">
@@ -5661,7 +5661,7 @@
         <v>-1.42</v>
       </c>
       <c r="E174" t="n">
-        <v>-6.843768708248258</v>
+        <v>-6.843768708248268</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
@@ -5674,7 +5674,7 @@
         <v>-5.49</v>
       </c>
       <c r="J174" t="n">
-        <v>12.31735736743417</v>
+        <v>12.31735736743419</v>
       </c>
     </row>
     <row r="175">
@@ -5691,7 +5691,7 @@
         <v>7.95</v>
       </c>
       <c r="E175" t="n">
-        <v>-9.628703573400488</v>
+        <v>-9.628703573400486</v>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
@@ -5721,7 +5721,7 @@
         <v>11.06</v>
       </c>
       <c r="E176" t="n">
-        <v>8.703794325822173</v>
+        <v>8.703794325822166</v>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
@@ -5734,7 +5734,7 @@
         <v>-15.77</v>
       </c>
       <c r="J176" t="n">
-        <v>-16.37192274571287</v>
+        <v>-16.37192274571286</v>
       </c>
     </row>
     <row r="177">
@@ -5751,7 +5751,7 @@
         <v>4.51</v>
       </c>
       <c r="E177" t="n">
-        <v>5.550562243379381</v>
+        <v>5.550562243379379</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
@@ -5764,7 +5764,7 @@
         <v>-6.28</v>
       </c>
       <c r="J177" t="n">
-        <v>6.781417580383518</v>
+        <v>6.78141758038353</v>
       </c>
     </row>
     <row r="178">
@@ -5811,7 +5811,7 @@
         <v>7.43</v>
       </c>
       <c r="E179" t="n">
-        <v>3.079752099668465</v>
+        <v>3.079752099668455</v>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="n">
@@ -5824,7 +5824,7 @@
         <v>-17.97</v>
       </c>
       <c r="J179" t="n">
-        <v>-29.36068280613294</v>
+        <v>-29.36068280613293</v>
       </c>
     </row>
     <row r="180">
@@ -5871,7 +5871,7 @@
         <v>11.45</v>
       </c>
       <c r="E181" t="n">
-        <v>-10.50790229458289</v>
+        <v>-10.50790229458288</v>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
@@ -5884,7 +5884,7 @@
         <v>-12.94</v>
       </c>
       <c r="J181" t="n">
-        <v>-17.58130294242527</v>
+        <v>-17.58130294242525</v>
       </c>
     </row>
   </sheetData>
@@ -5972,7 +5972,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.004411637235345</v>
+        <v>-2.004411637235348</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
@@ -6002,7 +6002,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.30262113921672</v>
+        <v>-11.30262113921671</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
@@ -6032,7 +6032,7 @@
         <v>7.92</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.041761477653024</v>
+        <v>-7.041761477653031</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
@@ -6045,7 +6045,7 @@
         <v>-3.84</v>
       </c>
       <c r="J4" t="n">
-        <v>2.86142805384448</v>
+        <v>2.861428053844477</v>
       </c>
     </row>
     <row r="5">
@@ -6062,7 +6062,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>6.108043679920043</v>
+        <v>6.10804367992004</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
@@ -6075,7 +6075,7 @@
         <v>-4.08</v>
       </c>
       <c r="J5" t="n">
-        <v>22.75640418295142</v>
+        <v>22.75640418295143</v>
       </c>
     </row>
     <row r="6">
@@ -6092,7 +6092,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.267707296523071</v>
+        <v>-9.267707296523074</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -6105,7 +6105,7 @@
         <v>-4.71</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.27986826999089</v>
+        <v>-4.279868269990872</v>
       </c>
     </row>
     <row r="7">
@@ -6122,7 +6122,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8525377913694235</v>
+        <v>0.8525377913694194</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
@@ -6135,7 +6135,7 @@
         <v>-4.16</v>
       </c>
       <c r="J7" t="n">
-        <v>17.18530452712058</v>
+        <v>17.18530452712057</v>
       </c>
     </row>
     <row r="8">
@@ -6152,7 +6152,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.058412137732491</v>
+        <v>-4.058412137732485</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
@@ -6165,7 +6165,7 @@
         <v>-4.08</v>
       </c>
       <c r="J8" t="n">
-        <v>-9.880382045700374</v>
+        <v>-9.880382045700365</v>
       </c>
     </row>
     <row r="9">
@@ -6182,7 +6182,7 @@
         <v>8.67</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.828694670773574</v>
+        <v>-8.828694670773576</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
@@ -6212,7 +6212,7 @@
         <v>8.34</v>
       </c>
       <c r="E10" t="n">
-        <v>5.929138706921004</v>
+        <v>5.929138706921001</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
@@ -6225,7 +6225,7 @@
         <v>-5.02</v>
       </c>
       <c r="J10" t="n">
-        <v>-29.71500779546168</v>
+        <v>-29.71500779546167</v>
       </c>
     </row>
     <row r="11">
@@ -6272,7 +6272,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.006861439022317</v>
+        <v>-4.006861439022324</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
@@ -6302,7 +6302,7 @@
         <v>8.33</v>
       </c>
       <c r="E13" t="n">
-        <v>-12.65535475343984</v>
+        <v>-12.65535475343982</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
@@ -6315,7 +6315,7 @@
         <v>-4.08</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3668708061893041</v>
+        <v>0.3668708061893157</v>
       </c>
     </row>
     <row r="14">
@@ -6332,7 +6332,7 @@
         <v>8.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.211601833438039</v>
+        <v>1.211601833438034</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
@@ -6345,7 +6345,7 @@
         <v>-3.92</v>
       </c>
       <c r="J14" t="n">
-        <v>-16.83178209701955</v>
+        <v>-16.83178209701954</v>
       </c>
     </row>
     <row r="15">
@@ -6362,7 +6362,7 @@
         <v>7.95</v>
       </c>
       <c r="E15" t="n">
-        <v>3.195482135852297</v>
+        <v>3.195482135852294</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
@@ -6392,7 +6392,7 @@
         <v>8.16</v>
       </c>
       <c r="E16" t="n">
-        <v>2.458240467960384</v>
+        <v>2.458240467960392</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
@@ -6405,7 +6405,7 @@
         <v>-5.1</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.551551975438845</v>
+        <v>-5.551551975438843</v>
       </c>
     </row>
     <row r="17">
@@ -6422,7 +6422,7 @@
         <v>8.220000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>-9.918453181852566</v>
+        <v>-9.918453181852572</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
@@ -6435,7 +6435,7 @@
         <v>-5.33</v>
       </c>
       <c r="J17" t="n">
-        <v>23.78171359340384</v>
+        <v>23.78171359340385</v>
       </c>
     </row>
     <row r="18">
@@ -6452,7 +6452,7 @@
         <v>7.74</v>
       </c>
       <c r="E18" t="n">
-        <v>-9.60866502302845</v>
+        <v>-9.608665023028443</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
@@ -6465,7 +6465,7 @@
         <v>-5.49</v>
       </c>
       <c r="J18" t="n">
-        <v>22.85917816920179</v>
+        <v>22.85917816920178</v>
       </c>
     </row>
     <row r="19">
@@ -6482,7 +6482,7 @@
         <v>7.66</v>
       </c>
       <c r="E19" t="n">
-        <v>-9.504019684736688</v>
+        <v>-9.504019684736683</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
@@ -6495,7 +6495,7 @@
         <v>-5.65</v>
       </c>
       <c r="J19" t="n">
-        <v>34.79833994009657</v>
+        <v>34.79833994009658</v>
       </c>
     </row>
     <row r="20">
@@ -6512,7 +6512,7 @@
         <v>7.48</v>
       </c>
       <c r="E20" t="n">
-        <v>6.590152863882721</v>
+        <v>6.590152863882731</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
@@ -6525,7 +6525,7 @@
         <v>-5.88</v>
       </c>
       <c r="J20" t="n">
-        <v>-14.85392028172803</v>
+        <v>-14.85392028172802</v>
       </c>
     </row>
     <row r="21">
@@ -6542,7 +6542,7 @@
         <v>7.52</v>
       </c>
       <c r="E21" t="n">
-        <v>3.073460114420058</v>
+        <v>3.073460114420055</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
@@ -6555,7 +6555,7 @@
         <v>-4.94</v>
       </c>
       <c r="J21" t="n">
-        <v>14.59013712185807</v>
+        <v>14.59013712185808</v>
       </c>
     </row>
     <row r="22">
@@ -6572,7 +6572,7 @@
         <v>7.82</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.979647015060485</v>
+        <v>-2.979647015060482</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
@@ -6585,7 +6585,7 @@
         <v>-4.86</v>
       </c>
       <c r="J22" t="n">
-        <v>36.32948409455922</v>
+        <v>36.32948409455921</v>
       </c>
     </row>
     <row r="23">
@@ -6602,7 +6602,7 @@
         <v>8.41</v>
       </c>
       <c r="E23" t="n">
-        <v>5.878343981496433</v>
+        <v>5.878343981496427</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
@@ -6615,7 +6615,7 @@
         <v>-4.94</v>
       </c>
       <c r="J23" t="n">
-        <v>3.427138417426461</v>
+        <v>3.42713841742645</v>
       </c>
     </row>
     <row r="24">
@@ -6632,7 +6632,7 @@
         <v>8.49</v>
       </c>
       <c r="E24" t="n">
-        <v>5.746044663624166</v>
+        <v>5.746044663624179</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
@@ -6645,7 +6645,7 @@
         <v>-5.57</v>
       </c>
       <c r="J24" t="n">
-        <v>-10.50214341496701</v>
+        <v>-10.50214341496702</v>
       </c>
     </row>
     <row r="25">
@@ -6662,7 +6662,7 @@
         <v>8.18</v>
       </c>
       <c r="E25" t="n">
-        <v>2.129400480032833</v>
+        <v>2.12940048003283</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
@@ -6675,7 +6675,7 @@
         <v>-6.35</v>
       </c>
       <c r="J25" t="n">
-        <v>-7.198970220484927</v>
+        <v>-7.198970220484943</v>
       </c>
     </row>
     <row r="26">
@@ -6692,7 +6692,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>1.807356086169837</v>
+        <v>1.807356086169838</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
@@ -6705,7 +6705,7 @@
         <v>-5.81</v>
       </c>
       <c r="J26" t="n">
-        <v>16.82826402037497</v>
+        <v>16.82826402037496</v>
       </c>
     </row>
     <row r="27">
@@ -6722,7 +6722,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>-8.764825758528129</v>
+        <v>-8.764825758528138</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
@@ -6735,7 +6735,7 @@
         <v>-5.65</v>
       </c>
       <c r="J27" t="n">
-        <v>-13.77133838169033</v>
+        <v>-13.77133838169032</v>
       </c>
     </row>
     <row r="28">
@@ -6752,7 +6752,7 @@
         <v>8.66</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.613526085467299</v>
+        <v>-1.613526085467303</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
@@ -6782,7 +6782,7 @@
         <v>7.73</v>
       </c>
       <c r="E29" t="n">
-        <v>-8.22156302476502</v>
+        <v>-8.221563024765013</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
@@ -6795,7 +6795,7 @@
         <v>-7.69</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.875010615087306</v>
+        <v>-2.875010615087323</v>
       </c>
     </row>
     <row r="30">
@@ -6825,7 +6825,7 @@
         <v>-7.06</v>
       </c>
       <c r="J30" t="n">
-        <v>-4.696657423576859</v>
+        <v>-4.696657423576838</v>
       </c>
     </row>
     <row r="31">
@@ -6842,7 +6842,7 @@
         <v>8.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.497801655775147</v>
+        <v>-2.49780165577514</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
@@ -6855,7 +6855,7 @@
         <v>-5.18</v>
       </c>
       <c r="J31" t="n">
-        <v>-7.336719477121054</v>
+        <v>-7.336719477121072</v>
       </c>
     </row>
     <row r="32">
@@ -6902,7 +6902,7 @@
         <v>8.59</v>
       </c>
       <c r="E33" t="n">
-        <v>-5.427272762559441</v>
+        <v>-5.427272762559443</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
@@ -6915,7 +6915,7 @@
         <v>-5.73</v>
       </c>
       <c r="J33" t="n">
-        <v>7.116621613760984</v>
+        <v>7.116621613760989</v>
       </c>
     </row>
     <row r="34">
@@ -6932,7 +6932,7 @@
         <v>7.66</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.211216257975272</v>
+        <v>-2.211216257975274</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
@@ -6962,7 +6962,7 @@
         <v>7.51</v>
       </c>
       <c r="E35" t="n">
-        <v>8.85261624860018</v>
+        <v>8.852616248600183</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
@@ -6975,7 +6975,7 @@
         <v>-5.81</v>
       </c>
       <c r="J35" t="n">
-        <v>-14.9936853329544</v>
+        <v>-14.99368533295438</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7005,7 @@
         <v>-5.96</v>
       </c>
       <c r="J36" t="n">
-        <v>5.066463564565672</v>
+        <v>5.066463564565658</v>
       </c>
     </row>
     <row r="37">
@@ -7022,7 +7022,7 @@
         <v>7.74</v>
       </c>
       <c r="E37" t="n">
-        <v>2.376556407788589</v>
+        <v>2.37655640778859</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
@@ -7035,7 +7035,7 @@
         <v>-55.23</v>
       </c>
       <c r="J37" t="n">
-        <v>20.45536307236592</v>
+        <v>20.4553630723659</v>
       </c>
     </row>
     <row r="38">
@@ -7052,7 +7052,7 @@
         <v>-38.48</v>
       </c>
       <c r="E38" t="n">
-        <v>-14.1886744115205</v>
+        <v>-14.18867441152049</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
@@ -7065,7 +7065,7 @@
         <v>-11.3</v>
       </c>
       <c r="J38" t="n">
-        <v>15.72942347269344</v>
+        <v>15.72942347269342</v>
       </c>
     </row>
     <row r="39">
@@ -7082,7 +7082,7 @@
         <v>12.21</v>
       </c>
       <c r="E39" t="n">
-        <v>9.281480943074133</v>
+        <v>9.281480943074127</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
@@ -7095,7 +7095,7 @@
         <v>9.81</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83530254649865</v>
+        <v>20.83530254649867</v>
       </c>
     </row>
     <row r="40">
@@ -7112,7 +7112,7 @@
         <v>14.32</v>
       </c>
       <c r="E40" t="n">
-        <v>4.251204686252109</v>
+        <v>4.251204686252114</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
@@ -7125,7 +7125,7 @@
         <v>-4.16</v>
       </c>
       <c r="J40" t="n">
-        <v>-8.693664169976598</v>
+        <v>-8.693664169976596</v>
       </c>
     </row>
     <row r="41">
@@ -7142,7 +7142,7 @@
         <v>14.87</v>
       </c>
       <c r="E41" t="n">
-        <v>19.49662100451417</v>
+        <v>19.49662100451416</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
@@ -7155,7 +7155,7 @@
         <v>-2.12</v>
       </c>
       <c r="J41" t="n">
-        <v>-13.85625139998875</v>
+        <v>-13.85625139998873</v>
       </c>
     </row>
     <row r="42">
@@ -7172,7 +7172,7 @@
         <v>5.09</v>
       </c>
       <c r="E42" t="n">
-        <v>11.88428677013304</v>
+        <v>11.88428677013303</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
@@ -7185,7 +7185,7 @@
         <v>-4.31</v>
       </c>
       <c r="J42" t="n">
-        <v>-3.576836583911785</v>
+        <v>-3.576836583911771</v>
       </c>
     </row>
     <row r="43">
@@ -7202,7 +7202,7 @@
         <v>7.57</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.5332247956867</v>
+        <v>-14.53322479568672</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
@@ -7215,7 +7215,7 @@
         <v>-0.86</v>
       </c>
       <c r="J43" t="n">
-        <v>37.26635457707403</v>
+        <v>37.26635457707402</v>
       </c>
     </row>
     <row r="44">
@@ -7232,7 +7232,7 @@
         <v>7.8</v>
       </c>
       <c r="E44" t="n">
-        <v>3.740448423760736</v>
+        <v>3.740448423760723</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
@@ -7245,7 +7245,7 @@
         <v>-17.57</v>
       </c>
       <c r="J44" t="n">
-        <v>-21.08339330682761</v>
+        <v>-21.0833933068276</v>
       </c>
     </row>
     <row r="45">
@@ -7262,7 +7262,7 @@
         <v>12.41</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7005353183007103</v>
+        <v>0.7005353183006997</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
@@ -7275,7 +7275,7 @@
         <v>-15.38</v>
       </c>
       <c r="J45" t="n">
-        <v>2.124671395523693</v>
+        <v>2.124671395523708</v>
       </c>
     </row>
     <row r="46">
@@ -7292,7 +7292,7 @@
         <v>15.95</v>
       </c>
       <c r="E46" t="n">
-        <v>6.733207025877718</v>
+        <v>6.733207025877722</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
@@ -7305,7 +7305,7 @@
         <v>-7.45</v>
       </c>
       <c r="J46" t="n">
-        <v>-22.06884864444552</v>
+        <v>-22.06884864444551</v>
       </c>
     </row>
     <row r="47">
@@ -7322,7 +7322,7 @@
         <v>11.22</v>
       </c>
       <c r="E47" t="n">
-        <v>-4.282179522765906</v>
+        <v>-4.282179522765905</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
@@ -7335,7 +7335,7 @@
         <v>9.02</v>
       </c>
       <c r="J47" t="n">
-        <v>35.06250895157782</v>
+        <v>35.06250895157783</v>
       </c>
     </row>
     <row r="48">
@@ -7365,7 +7365,7 @@
         <v>2.59</v>
       </c>
       <c r="J48" t="n">
-        <v>-31.52518281302771</v>
+        <v>-31.52518281302768</v>
       </c>
     </row>
     <row r="49">
@@ -7382,7 +7382,7 @@
         <v>6.69</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.6476540694640708</v>
+        <v>-0.647654069464079</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
@@ -7395,7 +7395,7 @@
         <v>-1.65</v>
       </c>
       <c r="J49" t="n">
-        <v>-32.12138555878116</v>
+        <v>-32.12138555878117</v>
       </c>
     </row>
     <row r="50">
@@ -7425,7 +7425,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>-13.27852754520895</v>
+        <v>-13.27852754520898</v>
       </c>
     </row>
     <row r="51">
@@ -7472,7 +7472,7 @@
         <v>7.34</v>
       </c>
       <c r="E52" t="n">
-        <v>2.919543796291091</v>
+        <v>2.919543796291089</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
@@ -7502,7 +7502,7 @@
         <v>3.81</v>
       </c>
       <c r="E53" t="n">
-        <v>9.768705244331723</v>
+        <v>9.768705244331727</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
@@ -7515,7 +7515,7 @@
         <v>-3.37</v>
       </c>
       <c r="J53" t="n">
-        <v>19.40262769723499</v>
+        <v>19.40262769723497</v>
       </c>
     </row>
     <row r="54">
@@ -7532,7 +7532,7 @@
         <v>18.72</v>
       </c>
       <c r="E54" t="n">
-        <v>10.00421263511015</v>
+        <v>10.00421263511014</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
@@ -7545,7 +7545,7 @@
         <v>21.97</v>
       </c>
       <c r="J54" t="n">
-        <v>14.58325289243419</v>
+        <v>14.5832528924342</v>
       </c>
     </row>
     <row r="55">
@@ -7562,7 +7562,7 @@
         <v>15.76</v>
       </c>
       <c r="E55" t="n">
-        <v>27.17075744997035</v>
+        <v>27.17075744997036</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
@@ -7592,7 +7592,7 @@
         <v>-2.38</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.208072234552874</v>
+        <v>-3.208072234552877</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
@@ -7605,7 +7605,7 @@
         <v>-46.6</v>
       </c>
       <c r="J56" t="n">
-        <v>-9.063085691699044</v>
+        <v>-9.063085691699031</v>
       </c>
     </row>
     <row r="57">
@@ -7622,7 +7622,7 @@
         <v>3.56</v>
       </c>
       <c r="E57" t="n">
-        <v>6.060008207035725</v>
+        <v>6.060008207035718</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
@@ -7652,7 +7652,7 @@
         <v>-6.4</v>
       </c>
       <c r="E58" t="n">
-        <v>1.055580705831827</v>
+        <v>1.055580705831813</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
@@ -7665,7 +7665,7 @@
         <v>-14.91</v>
       </c>
       <c r="J58" t="n">
-        <v>-11.50720433751424</v>
+        <v>-11.50720433751422</v>
       </c>
     </row>
     <row r="59">
@@ -7695,7 +7695,7 @@
         <v>6.43</v>
       </c>
       <c r="J59" t="n">
-        <v>18.5862704771337</v>
+        <v>18.58627047713368</v>
       </c>
     </row>
     <row r="60">
@@ -7712,7 +7712,7 @@
         <v>-7.47</v>
       </c>
       <c r="E60" t="n">
-        <v>15.28920396968946</v>
+        <v>15.28920396968947</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
@@ -7725,7 +7725,7 @@
         <v>-63.94</v>
       </c>
       <c r="J60" t="n">
-        <v>-44.51290653859204</v>
+        <v>-44.51290653859203</v>
       </c>
     </row>
     <row r="61">
@@ -7755,7 +7755,7 @@
         <v>-65.19</v>
       </c>
       <c r="J61" t="n">
-        <v>-6.78171464573445</v>
+        <v>-6.78171464573441</v>
       </c>
     </row>
     <row r="62">
@@ -7772,7 +7772,7 @@
         <v>-2.48</v>
       </c>
       <c r="E62" t="n">
-        <v>-4.632250873701463</v>
+        <v>-4.632250873701459</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
@@ -7802,7 +7802,7 @@
         <v>18.84</v>
       </c>
       <c r="E63" t="n">
-        <v>24.73815501527806</v>
+        <v>24.73815501527804</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
@@ -7815,7 +7815,7 @@
         <v>38.76</v>
       </c>
       <c r="J63" t="n">
-        <v>3.386105291890605</v>
+        <v>3.386105291890583</v>
       </c>
     </row>
     <row r="64">
@@ -7862,7 +7862,7 @@
         <v>4.33</v>
       </c>
       <c r="E65" t="n">
-        <v>-9.528685345381694</v>
+        <v>-9.528685345381701</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
@@ -7892,7 +7892,7 @@
         <v>-36.27</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.601339667857752</v>
+        <v>-2.601339667857748</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
@@ -7905,7 +7905,7 @@
         <v>-0.39</v>
       </c>
       <c r="J66" t="n">
-        <v>-57.22263667347373</v>
+        <v>-57.22263667347372</v>
       </c>
     </row>
     <row r="67">
@@ -7935,7 +7935,7 @@
         <v>9.73</v>
       </c>
       <c r="J67" t="n">
-        <v>-16.34382603304653</v>
+        <v>-16.34382603304651</v>
       </c>
     </row>
     <row r="68">
@@ -7982,7 +7982,7 @@
         <v>40.3</v>
       </c>
       <c r="E69" t="n">
-        <v>13.17706852979699</v>
+        <v>13.17706852979697</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
@@ -8012,7 +8012,7 @@
         <v>1.29</v>
       </c>
       <c r="E70" t="n">
-        <v>2.251872538383978</v>
+        <v>2.251872538383987</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
@@ -8025,7 +8025,7 @@
         <v>2.28</v>
       </c>
       <c r="J70" t="n">
-        <v>-54.01740593379273</v>
+        <v>-54.01740593379274</v>
       </c>
     </row>
     <row r="71">
@@ -8055,7 +8055,7 @@
         <v>-41.97</v>
       </c>
       <c r="J71" t="n">
-        <v>99.11912855497202</v>
+        <v>99.11912855497199</v>
       </c>
     </row>
     <row r="72">
@@ -8085,7 +8085,7 @@
         <v>7.3</v>
       </c>
       <c r="J72" t="n">
-        <v>-37.7748323305027</v>
+        <v>-37.77483233050271</v>
       </c>
     </row>
     <row r="73">
@@ -8132,7 +8132,7 @@
         <v>9.57</v>
       </c>
       <c r="E74" t="n">
-        <v>3.991410903405973</v>
+        <v>3.991410903405971</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
@@ -8145,7 +8145,7 @@
         <v>-75.31999999999999</v>
       </c>
       <c r="J74" t="n">
-        <v>-14.73642115603138</v>
+        <v>-14.73642115603135</v>
       </c>
     </row>
     <row r="75">
@@ -8175,7 +8175,7 @@
         <v>-2.51</v>
       </c>
       <c r="J75" t="n">
-        <v>14.91049342647669</v>
+        <v>14.91049342647666</v>
       </c>
     </row>
     <row r="76">
@@ -8192,7 +8192,7 @@
         <v>-1.94</v>
       </c>
       <c r="E76" t="n">
-        <v>9.902944422363023</v>
+        <v>9.90294442236303</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
@@ -8205,7 +8205,7 @@
         <v>58.92</v>
       </c>
       <c r="J76" t="n">
-        <v>-1.863024771820798</v>
+        <v>-1.863024771820811</v>
       </c>
     </row>
     <row r="77">
@@ -8235,7 +8235,7 @@
         <v>33.73</v>
       </c>
       <c r="J77" t="n">
-        <v>53.53305524583995</v>
+        <v>53.53305524583996</v>
       </c>
     </row>
     <row r="78">
@@ -8252,7 +8252,7 @@
         <v>2.04</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.93575159869864</v>
+        <v>-17.93575159869865</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
@@ -8265,7 +8265,7 @@
         <v>-3.61</v>
       </c>
       <c r="J78" t="n">
-        <v>19.12225088480333</v>
+        <v>19.1222508848033</v>
       </c>
     </row>
     <row r="79">
@@ -8282,7 +8282,7 @@
         <v>6.6</v>
       </c>
       <c r="E79" t="n">
-        <v>39.74270581735426</v>
+        <v>39.74270581735425</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
@@ -8342,7 +8342,7 @@
         <v>-6.24</v>
       </c>
       <c r="E81" t="n">
-        <v>76.87537228002934</v>
+        <v>76.87537228002931</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
@@ -8355,7 +8355,7 @@
         <v>40.72</v>
       </c>
       <c r="J81" t="n">
-        <v>-49.30883382069678</v>
+        <v>-49.30883382069676</v>
       </c>
     </row>
     <row r="82">
@@ -8385,7 +8385,7 @@
         <v>17.57</v>
       </c>
       <c r="J82" t="n">
-        <v>39.81535662349554</v>
+        <v>39.81535662349552</v>
       </c>
     </row>
     <row r="83">
@@ -8402,7 +8402,7 @@
         <v>-5.33</v>
       </c>
       <c r="E83" t="n">
-        <v>92.75288547266842</v>
+        <v>92.75288547266841</v>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
@@ -8415,7 +8415,7 @@
         <v>12.32</v>
       </c>
       <c r="J83" t="n">
-        <v>-4.085504510794202</v>
+        <v>-4.085504510794188</v>
       </c>
     </row>
     <row r="84">
@@ -8445,7 +8445,7 @@
         <v>29.81</v>
       </c>
       <c r="J84" t="n">
-        <v>-40.62659824288708</v>
+        <v>-40.62659824288706</v>
       </c>
     </row>
     <row r="85">
@@ -8462,7 +8462,7 @@
         <v>4.99</v>
       </c>
       <c r="E85" t="n">
-        <v>29.44954511358809</v>
+        <v>29.4495451135881</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
@@ -8475,7 +8475,7 @@
         <v>10.83</v>
       </c>
       <c r="J85" t="n">
-        <v>-17.29368762122846</v>
+        <v>-17.29368762122845</v>
       </c>
     </row>
     <row r="86">
@@ -8492,7 +8492,7 @@
         <v>-2.38</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.90990864226135</v>
+        <v>-17.90990864226136</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
@@ -8505,7 +8505,7 @@
         <v>51.07</v>
       </c>
       <c r="J86" t="n">
-        <v>74.01820454209937</v>
+        <v>74.01820454209938</v>
       </c>
     </row>
     <row r="87">
@@ -8535,7 +8535,7 @@
         <v>27.62</v>
       </c>
       <c r="J87" t="n">
-        <v>23.57231818702311</v>
+        <v>23.57231818702313</v>
       </c>
     </row>
     <row r="88">
@@ -8552,7 +8552,7 @@
         <v>10.24</v>
       </c>
       <c r="E88" t="n">
-        <v>69.2886453514221</v>
+        <v>69.28864535142213</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
@@ -8565,7 +8565,7 @@
         <v>35.38</v>
       </c>
       <c r="J88" t="n">
-        <v>-41.5457411140783</v>
+        <v>-41.54574111407828</v>
       </c>
     </row>
     <row r="89">
@@ -8582,7 +8582,7 @@
         <v>-5.45</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.88311806723494</v>
+        <v>-23.88311806723492</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
@@ -8625,7 +8625,7 @@
         <v>-56.09</v>
       </c>
       <c r="J90" t="n">
-        <v>-84.63328021447143</v>
+        <v>-84.63328021447145</v>
       </c>
     </row>
     <row r="91">
@@ -8642,7 +8642,7 @@
         <v>10.61</v>
       </c>
       <c r="E91" t="n">
-        <v>1.522721786303107</v>
+        <v>1.522721786303093</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
@@ -8655,7 +8655,7 @@
         <v>23.07</v>
       </c>
       <c r="J91" t="n">
-        <v>43.38114960488063</v>
+        <v>43.38114960488062</v>
       </c>
     </row>
     <row r="92">
@@ -8672,7 +8672,7 @@
         <v>-15.65</v>
       </c>
       <c r="E92" t="n">
-        <v>13.33912834545665</v>
+        <v>13.33912834545666</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
@@ -8685,7 +8685,7 @@
         <v>-87.55</v>
       </c>
       <c r="J92" t="n">
-        <v>173.6746333664338</v>
+        <v>173.6746333664337</v>
       </c>
     </row>
     <row r="93">
@@ -8702,7 +8702,7 @@
         <v>-22.04</v>
       </c>
       <c r="E93" t="n">
-        <v>-4.20693199492776</v>
+        <v>-4.206931994927749</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
@@ -8732,7 +8732,7 @@
         <v>1.17</v>
       </c>
       <c r="E94" t="n">
-        <v>4.365127359325378</v>
+        <v>4.365127359325372</v>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
@@ -8745,7 +8745,7 @@
         <v>-138.47</v>
       </c>
       <c r="J94" t="n">
-        <v>-67.52567215336903</v>
+        <v>-67.52567215336906</v>
       </c>
     </row>
     <row r="95">
@@ -8762,7 +8762,7 @@
         <v>23.44</v>
       </c>
       <c r="E95" t="n">
-        <v>-100.5743649902124</v>
+        <v>-100.5743649902125</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
@@ -8822,7 +8822,7 @@
         <v>27.21</v>
       </c>
       <c r="E97" t="n">
-        <v>11.29763870070427</v>
+        <v>11.29763870070425</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
@@ -8835,7 +8835,7 @@
         <v>30.68</v>
       </c>
       <c r="J97" t="n">
-        <v>53.66070437831483</v>
+        <v>53.66070437831485</v>
       </c>
     </row>
     <row r="98">
@@ -8852,7 +8852,7 @@
         <v>-2.48</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.096924740275575</v>
+        <v>-6.096924740275571</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
@@ -8882,7 +8882,7 @@
         <v>-60.75</v>
       </c>
       <c r="E99" t="n">
-        <v>-68.69224717860186</v>
+        <v>-68.69224717860189</v>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
@@ -8895,7 +8895,7 @@
         <v>34.75</v>
       </c>
       <c r="J99" t="n">
-        <v>14.16525582307983</v>
+        <v>14.16525582307982</v>
       </c>
     </row>
     <row r="100">
@@ -8912,7 +8912,7 @@
         <v>-15.5</v>
       </c>
       <c r="E100" t="n">
-        <v>-11.71762326641032</v>
+        <v>-11.71762326641031</v>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
@@ -8925,7 +8925,7 @@
         <v>-108.11</v>
       </c>
       <c r="J100" t="n">
-        <v>1.02445537792799</v>
+        <v>1.024455377927988</v>
       </c>
     </row>
     <row r="101">
@@ -8955,7 +8955,7 @@
         <v>13.96</v>
       </c>
       <c r="J101" t="n">
-        <v>27.58359658911169</v>
+        <v>27.58359658911167</v>
       </c>
     </row>
     <row r="102">
@@ -8985,7 +8985,7 @@
         <v>24.63</v>
       </c>
       <c r="J102" t="n">
-        <v>-11.77224080718003</v>
+        <v>-11.77224080717999</v>
       </c>
     </row>
     <row r="103">
@@ -9002,7 +9002,7 @@
         <v>15</v>
       </c>
       <c r="E103" t="n">
-        <v>7.690682528676544</v>
+        <v>7.690682528676545</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
@@ -9032,7 +9032,7 @@
         <v>-74.91</v>
       </c>
       <c r="E104" t="n">
-        <v>67.31366043421671</v>
+        <v>67.31366043421673</v>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
@@ -9092,7 +9092,7 @@
         <v>-24.24</v>
       </c>
       <c r="E106" t="n">
-        <v>30.39431904825096</v>
+        <v>30.39431904825095</v>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
@@ -9122,7 +9122,7 @@
         <v>36.76</v>
       </c>
       <c r="E107" t="n">
-        <v>83.50846871598921</v>
+        <v>83.5084687159892</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
@@ -9152,7 +9152,7 @@
         <v>-3.09</v>
       </c>
       <c r="E108" t="n">
-        <v>-28.18277376275267</v>
+        <v>-28.18277376275268</v>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
@@ -9182,7 +9182,7 @@
         <v>-0.48</v>
       </c>
       <c r="E109" t="n">
-        <v>1.414396639995658</v>
+        <v>1.414396639995665</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
@@ -9195,7 +9195,7 @@
         <v>2.51</v>
       </c>
       <c r="J109" t="n">
-        <v>49.63494947948595</v>
+        <v>49.63494947948597</v>
       </c>
     </row>
     <row r="110">
@@ -9212,7 +9212,7 @@
         <v>-0.22</v>
       </c>
       <c r="E110" t="n">
-        <v>7.447435502129241</v>
+        <v>7.447435502129249</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
@@ -9225,7 +9225,7 @@
         <v>-160.67</v>
       </c>
       <c r="J110" t="n">
-        <v>35.09624315064016</v>
+        <v>35.09624315064015</v>
       </c>
     </row>
     <row r="111">
@@ -9242,7 +9242,7 @@
         <v>34.14</v>
       </c>
       <c r="E111" t="n">
-        <v>-71.36617623146653</v>
+        <v>-71.36617623146654</v>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
@@ -9272,7 +9272,7 @@
         <v>-34.01</v>
       </c>
       <c r="E112" t="n">
-        <v>-20.35078097445491</v>
+        <v>-20.3507809744549</v>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
@@ -9375,7 +9375,7 @@
         <v>-12.24</v>
       </c>
       <c r="J115" t="n">
-        <v>30.07337466726472</v>
+        <v>30.07337466726473</v>
       </c>
     </row>
     <row r="116">
@@ -9392,7 +9392,7 @@
         <v>7.59</v>
       </c>
       <c r="E116" t="n">
-        <v>41.38492695327509</v>
+        <v>41.3849269532751</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
@@ -9435,7 +9435,7 @@
         <v>25.34</v>
       </c>
       <c r="J117" t="n">
-        <v>10.6271341679949</v>
+        <v>10.62713416799492</v>
       </c>
     </row>
     <row r="118">
@@ -9452,7 +9452,7 @@
         <v>12.37</v>
       </c>
       <c r="E118" t="n">
-        <v>19.41288459309756</v>
+        <v>19.41288459309755</v>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
@@ -9495,7 +9495,7 @@
         <v>62.84</v>
       </c>
       <c r="J119" t="n">
-        <v>-30.09425418387549</v>
+        <v>-30.09425418387548</v>
       </c>
     </row>
     <row r="120">
@@ -9525,7 +9525,7 @@
         <v>30.13</v>
       </c>
       <c r="J120" t="n">
-        <v>-12.58209455694001</v>
+        <v>-12.58209455694</v>
       </c>
     </row>
     <row r="121">
@@ -9542,7 +9542,7 @@
         <v>-43.14</v>
       </c>
       <c r="E121" t="n">
-        <v>24.30505529593023</v>
+        <v>24.30505529593024</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
@@ -9555,7 +9555,7 @@
         <v>-56.17</v>
       </c>
       <c r="J121" t="n">
-        <v>6.634552464551372</v>
+        <v>6.634552464551374</v>
       </c>
     </row>
     <row r="122">
@@ -9615,7 +9615,7 @@
         <v>5.26</v>
       </c>
       <c r="J123" t="n">
-        <v>-41.78350894702679</v>
+        <v>-41.7835089470268</v>
       </c>
     </row>
     <row r="124">
@@ -9632,7 +9632,7 @@
         <v>24.32</v>
       </c>
       <c r="E124" t="n">
-        <v>-22.94198287516202</v>
+        <v>-22.94198287516201</v>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
@@ -9675,7 +9675,7 @@
         <v>7.77</v>
       </c>
       <c r="J125" t="n">
-        <v>3.458114600220129</v>
+        <v>3.458114600220141</v>
       </c>
     </row>
     <row r="126">
@@ -9692,7 +9692,7 @@
         <v>-45.76</v>
       </c>
       <c r="E126" t="n">
-        <v>10.3957196980273</v>
+        <v>10.39571969802731</v>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
@@ -9722,7 +9722,7 @@
         <v>22.49</v>
       </c>
       <c r="E127" t="n">
-        <v>11.38064710184763</v>
+        <v>11.38064710184764</v>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
@@ -9782,7 +9782,7 @@
         <v>1.71</v>
       </c>
       <c r="E129" t="n">
-        <v>29.68253221736868</v>
+        <v>29.68253221736869</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
@@ -9795,7 +9795,7 @@
         <v>4.79</v>
       </c>
       <c r="J129" t="n">
-        <v>-7.623269244381075</v>
+        <v>-7.62326924438109</v>
       </c>
     </row>
     <row r="130">
@@ -9825,7 +9825,7 @@
         <v>7.14</v>
       </c>
       <c r="J130" t="n">
-        <v>-13.08527204486168</v>
+        <v>-13.08527204486169</v>
       </c>
     </row>
     <row r="131">
@@ -9855,7 +9855,7 @@
         <v>-160.67</v>
       </c>
       <c r="J131" t="n">
-        <v>5.745953161636127</v>
+        <v>5.745953161636123</v>
       </c>
     </row>
     <row r="132">
@@ -9902,7 +9902,7 @@
         <v>6.09</v>
       </c>
       <c r="E133" t="n">
-        <v>-5.588413192786143</v>
+        <v>-5.588413192786145</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
@@ -9915,7 +9915,7 @@
         <v>69.27</v>
       </c>
       <c r="J133" t="n">
-        <v>60.28266689362709</v>
+        <v>60.28266689362711</v>
       </c>
     </row>
     <row r="134">
@@ -9932,7 +9932,7 @@
         <v>-73.58</v>
       </c>
       <c r="E134" t="n">
-        <v>5.792238149266742</v>
+        <v>5.792238149266741</v>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
@@ -9945,7 +9945,7 @@
         <v>32.24</v>
       </c>
       <c r="J134" t="n">
-        <v>8.118580949686468</v>
+        <v>8.118580949686466</v>
       </c>
     </row>
     <row r="135">
@@ -9975,7 +9975,7 @@
         <v>28.56</v>
       </c>
       <c r="J135" t="n">
-        <v>39.29013871991507</v>
+        <v>39.29013871991508</v>
       </c>
     </row>
     <row r="136">
@@ -10005,7 +10005,7 @@
         <v>-43.46</v>
       </c>
       <c r="J136" t="n">
-        <v>-149.9499906663478</v>
+        <v>-149.9499906663477</v>
       </c>
     </row>
     <row r="137">
@@ -10022,7 +10022,7 @@
         <v>25.65</v>
       </c>
       <c r="E137" t="n">
-        <v>-3.001383367958946</v>
+        <v>-3.001383367958951</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
@@ -10035,7 +10035,7 @@
         <v>152.12</v>
       </c>
       <c r="J137" t="n">
-        <v>84.46083002308811</v>
+        <v>84.46083002308815</v>
       </c>
     </row>
     <row r="138">
@@ -10082,7 +10082,7 @@
         <v>-5.41</v>
       </c>
       <c r="E139" t="n">
-        <v>14.05431476260384</v>
+        <v>14.05431476260385</v>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
@@ -10095,7 +10095,7 @@
         <v>40.09</v>
       </c>
       <c r="J139" t="n">
-        <v>2.19541366679907</v>
+        <v>2.195413666799064</v>
       </c>
     </row>
     <row r="140">
@@ -10142,7 +10142,7 @@
         <v>-8.92</v>
       </c>
       <c r="E141" t="n">
-        <v>3.876995840768306</v>
+        <v>3.876995840768288</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
@@ -10155,7 +10155,7 @@
         <v>6.04</v>
       </c>
       <c r="J141" t="n">
-        <v>69.08326758463321</v>
+        <v>69.08326758463322</v>
       </c>
     </row>
     <row r="142">
@@ -10185,7 +10185,7 @@
         <v>18.91</v>
       </c>
       <c r="J142" t="n">
-        <v>28.96016927944573</v>
+        <v>28.96016927944574</v>
       </c>
     </row>
     <row r="143">
@@ -10202,7 +10202,7 @@
         <v>16.29</v>
       </c>
       <c r="E143" t="n">
-        <v>14.19580406069208</v>
+        <v>14.1958040606921</v>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
@@ -10232,7 +10232,7 @@
         <v>-15.51</v>
       </c>
       <c r="E144" t="n">
-        <v>-46.85629697890286</v>
+        <v>-46.85629697890285</v>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
@@ -10275,7 +10275,7 @@
         <v>160.59</v>
       </c>
       <c r="J145" t="n">
-        <v>-35.97708965678537</v>
+        <v>-35.97708965678538</v>
       </c>
     </row>
     <row r="146">
@@ -10292,7 +10292,7 @@
         <v>-21.35</v>
       </c>
       <c r="E146" t="n">
-        <v>9.227654315427284</v>
+        <v>9.227654315427275</v>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="n">
@@ -10305,7 +10305,7 @@
         <v>29.58</v>
       </c>
       <c r="J146" t="n">
-        <v>32.32947677090339</v>
+        <v>32.32947677090338</v>
       </c>
     </row>
     <row r="147">
@@ -10322,7 +10322,7 @@
         <v>21.6</v>
       </c>
       <c r="E147" t="n">
-        <v>35.26709697803526</v>
+        <v>35.26709697803525</v>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
@@ -10365,7 +10365,7 @@
         <v>42.99</v>
       </c>
       <c r="J148" t="n">
-        <v>65.81283769426803</v>
+        <v>65.81283769426801</v>
       </c>
     </row>
     <row r="149">
@@ -10395,7 +10395,7 @@
         <v>99.48</v>
       </c>
       <c r="J149" t="n">
-        <v>8.262903690513134</v>
+        <v>8.26290369051312</v>
       </c>
     </row>
     <row r="150">
@@ -10455,7 +10455,7 @@
         <v>9.41</v>
       </c>
       <c r="J151" t="n">
-        <v>-3.590507196422276</v>
+        <v>-3.590507196422291</v>
       </c>
     </row>
     <row r="152">
@@ -10485,7 +10485,7 @@
         <v>-95.79000000000001</v>
       </c>
       <c r="J152" t="n">
-        <v>-20.04688875067407</v>
+        <v>-20.04688875067406</v>
       </c>
     </row>
     <row r="153">
@@ -10502,7 +10502,7 @@
         <v>26.02</v>
       </c>
       <c r="E153" t="n">
-        <v>-15.24306495626215</v>
+        <v>-15.24306495626214</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
@@ -10515,7 +10515,7 @@
         <v>35.54</v>
       </c>
       <c r="J153" t="n">
-        <v>-12.80240372311058</v>
+        <v>-12.80240372311057</v>
       </c>
     </row>
     <row r="154">
@@ -10532,7 +10532,7 @@
         <v>32.53</v>
       </c>
       <c r="E154" t="n">
-        <v>-37.40310453363735</v>
+        <v>-37.40310453363736</v>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
@@ -10545,7 +10545,7 @@
         <v>52.96</v>
       </c>
       <c r="J154" t="n">
-        <v>37.39704755847156</v>
+        <v>37.39704755847155</v>
       </c>
     </row>
     <row r="155">
@@ -10562,7 +10562,7 @@
         <v>-9.85</v>
       </c>
       <c r="E155" t="n">
-        <v>28.26062384734189</v>
+        <v>28.2606238473419</v>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
@@ -10592,7 +10592,7 @@
         <v>10.62</v>
       </c>
       <c r="E156" t="n">
-        <v>13.68476157622405</v>
+        <v>13.68476157622406</v>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
@@ -10605,7 +10605,7 @@
         <v>-10.36</v>
       </c>
       <c r="J156" t="n">
-        <v>9.222605634089746</v>
+        <v>9.222605634089739</v>
       </c>
     </row>
     <row r="157">
@@ -10622,7 +10622,7 @@
         <v>14.86</v>
       </c>
       <c r="E157" t="n">
-        <v>1.336650726576798</v>
+        <v>1.336650726576791</v>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
@@ -10635,7 +10635,7 @@
         <v>46.05</v>
       </c>
       <c r="J157" t="n">
-        <v>22.78126006882428</v>
+        <v>22.78126006882427</v>
       </c>
     </row>
     <row r="158">
@@ -10652,7 +10652,7 @@
         <v>-26.9</v>
       </c>
       <c r="E158" t="n">
-        <v>5.660495099447848</v>
+        <v>5.660495099447855</v>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="n">
@@ -10695,7 +10695,7 @@
         <v>21.97</v>
       </c>
       <c r="J159" t="n">
-        <v>-30.34761668506862</v>
+        <v>-30.34761668506864</v>
       </c>
     </row>
     <row r="160">
@@ -10742,7 +10742,7 @@
         <v>-44.83</v>
       </c>
       <c r="E161" t="n">
-        <v>13.11891130109749</v>
+        <v>13.11891130109748</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
@@ -10755,7 +10755,7 @@
         <v>-0.24</v>
       </c>
       <c r="J161" t="n">
-        <v>-0.09002373372787538</v>
+        <v>-0.09002373372786195</v>
       </c>
     </row>
     <row r="162">
@@ -10772,7 +10772,7 @@
         <v>95.29000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>37.42953682696596</v>
+        <v>37.42953682696597</v>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
@@ -10785,7 +10785,7 @@
         <v>25.26</v>
       </c>
       <c r="J162" t="n">
-        <v>29.08490277950111</v>
+        <v>29.08490277950109</v>
       </c>
     </row>
     <row r="163">
@@ -10802,7 +10802,7 @@
         <v>20.67</v>
       </c>
       <c r="E163" t="n">
-        <v>28.89611964527188</v>
+        <v>28.89611964527189</v>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="n">
@@ -10815,7 +10815,7 @@
         <v>23.07</v>
       </c>
       <c r="J163" t="n">
-        <v>-9.512809043088748</v>
+        <v>-9.512809043088724</v>
       </c>
     </row>
     <row r="164">
@@ -10832,7 +10832,7 @@
         <v>-0.42</v>
       </c>
       <c r="E164" t="n">
-        <v>-3.397181323128304</v>
+        <v>-3.397181323128296</v>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
@@ -10845,7 +10845,7 @@
         <v>35.85</v>
       </c>
       <c r="J164" t="n">
-        <v>50.34500349006148</v>
+        <v>50.34500349006149</v>
       </c>
     </row>
     <row r="165">
@@ -10862,7 +10862,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>2.497589656765788</v>
+        <v>2.497589656765796</v>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
@@ -10892,7 +10892,7 @@
         <v>-47.32</v>
       </c>
       <c r="E166" t="n">
-        <v>0.7496961982386404</v>
+        <v>0.749696198238635</v>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
@@ -10922,7 +10922,7 @@
         <v>31.95</v>
       </c>
       <c r="E167" t="n">
-        <v>-9.696315897845292</v>
+        <v>-9.696315897845297</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
@@ -10935,7 +10935,7 @@
         <v>-78.77</v>
       </c>
       <c r="J167" t="n">
-        <v>-38.33927754784514</v>
+        <v>-38.33927754784513</v>
       </c>
     </row>
     <row r="168">
@@ -10952,7 +10952,7 @@
         <v>44.11</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.1586686117551488</v>
+        <v>-0.1586686117551467</v>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
@@ -10965,7 +10965,7 @@
         <v>31.38</v>
       </c>
       <c r="J168" t="n">
-        <v>-16.99012062586839</v>
+        <v>-16.99012062586841</v>
       </c>
     </row>
     <row r="169">
@@ -10982,7 +10982,7 @@
         <v>-2.41</v>
       </c>
       <c r="E169" t="n">
-        <v>-20.73846658590175</v>
+        <v>-20.73846658590174</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
@@ -10995,7 +10995,7 @@
         <v>35.15</v>
       </c>
       <c r="J169" t="n">
-        <v>-12.96592631627185</v>
+        <v>-12.96592631627184</v>
       </c>
     </row>
     <row r="170">
@@ -11012,7 +11012,7 @@
         <v>43.78</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1401141447647762</v>
+        <v>0.1401141447647775</v>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
@@ -11025,7 +11025,7 @@
         <v>14.28</v>
       </c>
       <c r="J170" t="n">
-        <v>-18.95778888278999</v>
+        <v>-18.95778888278998</v>
       </c>
     </row>
     <row r="171">
@@ -11042,7 +11042,7 @@
         <v>68.26000000000001</v>
       </c>
       <c r="E171" t="n">
-        <v>8.824460458413084</v>
+        <v>8.824460458413078</v>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
@@ -11055,7 +11055,7 @@
         <v>-160.67</v>
       </c>
       <c r="J171" t="n">
-        <v>-0.5594013721259482</v>
+        <v>-0.5594013721259498</v>
       </c>
     </row>
     <row r="172">
@@ -11085,7 +11085,7 @@
         <v>5.57</v>
       </c>
       <c r="J172" t="n">
-        <v>56.80904665953225</v>
+        <v>56.80904665953221</v>
       </c>
     </row>
     <row r="173">
@@ -11115,7 +11115,7 @@
         <v>-29.18</v>
       </c>
       <c r="J173" t="n">
-        <v>-12.07050969852439</v>
+        <v>-12.07050969852437</v>
       </c>
     </row>
     <row r="174">
@@ -11162,7 +11162,7 @@
         <v>58.74</v>
       </c>
       <c r="E175" t="n">
-        <v>4.973418360881825</v>
+        <v>4.97341836088182</v>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
@@ -11175,7 +11175,7 @@
         <v>36.64</v>
       </c>
       <c r="J175" t="n">
-        <v>4.047144677309036</v>
+        <v>4.047144677309022</v>
       </c>
     </row>
     <row r="176">
@@ -11205,7 +11205,7 @@
         <v>24.56</v>
       </c>
       <c r="J176" t="n">
-        <v>45.45379238422049</v>
+        <v>45.45379238422051</v>
       </c>
     </row>
     <row r="177">
@@ -11222,7 +11222,7 @@
         <v>0.57</v>
       </c>
       <c r="E177" t="n">
-        <v>1.646549272933794</v>
+        <v>1.646549272933795</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
@@ -11235,7 +11235,7 @@
         <v>-73.98</v>
       </c>
       <c r="J177" t="n">
-        <v>9.247018989129264</v>
+        <v>9.24701898912927</v>
       </c>
     </row>
     <row r="178">
@@ -11252,7 +11252,7 @@
         <v>1.48</v>
       </c>
       <c r="E178" t="n">
-        <v>19.8335687225321</v>
+        <v>19.83356872253209</v>
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
@@ -11265,7 +11265,7 @@
         <v>18.51</v>
       </c>
       <c r="J178" t="n">
-        <v>15.42098459423926</v>
+        <v>15.42098459423928</v>
       </c>
     </row>
     <row r="179">
@@ -11282,7 +11282,7 @@
         <v>-20.13</v>
       </c>
       <c r="E179" t="n">
-        <v>-15.72880948594412</v>
+        <v>-15.72880948594411</v>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="n">
@@ -11295,7 +11295,7 @@
         <v>24.09</v>
       </c>
       <c r="J179" t="n">
-        <v>28.68823474839221</v>
+        <v>28.68823474839222</v>
       </c>
     </row>
     <row r="180">
@@ -11325,7 +11325,7 @@
         <v>-4.79</v>
       </c>
       <c r="J180" t="n">
-        <v>11.60603488040658</v>
+        <v>11.60603488040659</v>
       </c>
     </row>
     <row r="181">
@@ -11342,7 +11342,7 @@
         <v>6.87</v>
       </c>
       <c r="E181" t="n">
-        <v>-5.906431529097596</v>
+        <v>-5.90643152909759</v>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
@@ -11355,7 +11355,7 @@
         <v>2.75</v>
       </c>
       <c r="J181" t="n">
-        <v>27.34800645751432</v>
+        <v>27.34800645751434</v>
       </c>
     </row>
     <row r="182">
@@ -11372,7 +11372,7 @@
         <v>1.02</v>
       </c>
       <c r="E182" t="n">
-        <v>6.223146699021161</v>
+        <v>6.223146699021171</v>
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
@@ -11385,7 +11385,7 @@
         <v>17.57</v>
       </c>
       <c r="J182" t="n">
-        <v>37.1003255062712</v>
+        <v>37.10032550627119</v>
       </c>
     </row>
     <row r="183">
@@ -11402,7 +11402,7 @@
         <v>19.02</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.7165355564130117</v>
+        <v>-0.7165355564129936</v>
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
@@ -11415,7 +11415,7 @@
         <v>5.49</v>
       </c>
       <c r="J183" t="n">
-        <v>10.46220123068</v>
+        <v>10.46220123068001</v>
       </c>
     </row>
     <row r="184">
@@ -11445,7 +11445,7 @@
         <v>12.87</v>
       </c>
       <c r="J184" t="n">
-        <v>3.401876662760655</v>
+        <v>3.401876662760662</v>
       </c>
     </row>
     <row r="185">
@@ -11462,7 +11462,7 @@
         <v>0.87</v>
       </c>
       <c r="E185" t="n">
-        <v>-7.465744606321014</v>
+        <v>-7.465744606321009</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
@@ -11475,7 +11475,7 @@
         <v>-3.92</v>
       </c>
       <c r="J185" t="n">
-        <v>14.85333689266793</v>
+        <v>14.85333689266796</v>
       </c>
     </row>
     <row r="186">
@@ -11492,7 +11492,7 @@
         <v>12.91</v>
       </c>
       <c r="E186" t="n">
-        <v>-11.66965741188775</v>
+        <v>-11.66965741188774</v>
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
@@ -11505,7 +11505,7 @@
         <v>-5.81</v>
       </c>
       <c r="J186" t="n">
-        <v>37.29242611659793</v>
+        <v>37.29242611659792</v>
       </c>
     </row>
     <row r="187">
@@ -11522,7 +11522,7 @@
         <v>13.4</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9119116569278658</v>
+        <v>0.9119116569278718</v>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
@@ -11535,7 +11535,7 @@
         <v>4.71</v>
       </c>
       <c r="J187" t="n">
-        <v>-11.86863957542714</v>
+        <v>-11.86863957542712</v>
       </c>
     </row>
     <row r="188">
@@ -11552,7 +11552,7 @@
         <v>3.49</v>
       </c>
       <c r="E188" t="n">
-        <v>-1.061154519618629</v>
+        <v>-1.061154519618618</v>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
@@ -11582,7 +11582,7 @@
         <v>8.74</v>
       </c>
       <c r="E189" t="n">
-        <v>2.17769231602704</v>
+        <v>2.177692316027048</v>
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="n">
@@ -11612,7 +11612,7 @@
         <v>8.81</v>
       </c>
       <c r="E190" t="n">
-        <v>-11.30916279621115</v>
+        <v>-11.30916279621114</v>
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
@@ -11625,7 +11625,7 @@
         <v>2.9</v>
       </c>
       <c r="J190" t="n">
-        <v>-3.977133952923711</v>
+        <v>-3.97713395292372</v>
       </c>
     </row>
     <row r="191">
@@ -11672,7 +11672,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="E192" t="n">
-        <v>-2.760728207250774</v>
+        <v>-2.760728207250775</v>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
@@ -11685,7 +11685,7 @@
         <v>-10.36</v>
       </c>
       <c r="J192" t="n">
-        <v>5.107491520406807</v>
+        <v>5.107491520406801</v>
       </c>
     </row>
     <row r="193">
@@ -11702,7 +11702,7 @@
         <v>10.33</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.2973445598906246</v>
+        <v>-0.2973445598906359</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
@@ -11715,7 +11715,7 @@
         <v>-4.47</v>
       </c>
       <c r="J193" t="n">
-        <v>43.08009335529044</v>
+        <v>43.08009335529042</v>
       </c>
     </row>
     <row r="194">
@@ -11745,7 +11745,7 @@
         <v>-4.86</v>
       </c>
       <c r="J194" t="n">
-        <v>-17.80590086888581</v>
+        <v>-17.80590086888582</v>
       </c>
     </row>
     <row r="195">
@@ -11792,7 +11792,7 @@
         <v>6.49</v>
       </c>
       <c r="E196" t="n">
-        <v>-4.152907474763258</v>
+        <v>-4.152907474763242</v>
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
@@ -11805,7 +11805,7 @@
         <v>-7.14</v>
       </c>
       <c r="J196" t="n">
-        <v>-5.423869632357661</v>
+        <v>-5.423869632357656</v>
       </c>
     </row>
     <row r="197">
@@ -11822,7 +11822,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="E197" t="n">
-        <v>2.000533584019053</v>
+        <v>2.000533584019065</v>
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
@@ -11835,7 +11835,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="J197" t="n">
-        <v>16.79153450375255</v>
+        <v>16.79153450375259</v>
       </c>
     </row>
     <row r="198">
@@ -11852,7 +11852,7 @@
         <v>12.23</v>
       </c>
       <c r="E198" t="n">
-        <v>4.830549967332483</v>
+        <v>4.830549967332472</v>
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
@@ -11865,7 +11865,7 @@
         <v>-7.06</v>
       </c>
       <c r="J198" t="n">
-        <v>9.708319011204235</v>
+        <v>9.708319011204253</v>
       </c>
     </row>
     <row r="199">
@@ -11882,7 +11882,7 @@
         <v>5.55</v>
       </c>
       <c r="E199" t="n">
-        <v>2.496832688981611</v>
+        <v>2.496832688981604</v>
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
@@ -11912,7 +11912,7 @@
         <v>7.51</v>
       </c>
       <c r="E200" t="n">
-        <v>0.8870299579132056</v>
+        <v>0.8870299579132066</v>
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
@@ -11925,7 +11925,7 @@
         <v>-6.28</v>
       </c>
       <c r="J200" t="n">
-        <v>62.6010173327946</v>
+        <v>62.60101733279461</v>
       </c>
     </row>
   </sheetData>
@@ -12026,7 +12026,7 @@
         <v>-9.18</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.050906827057203</v>
+        <v>-3.050906827057207</v>
       </c>
     </row>
     <row r="3">
@@ -12073,7 +12073,7 @@
         <v>7.59</v>
       </c>
       <c r="E4" t="n">
-        <v>7.756533105643819</v>
+        <v>7.756533105643818</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
@@ -12086,7 +12086,7 @@
         <v>-7.14</v>
       </c>
       <c r="J4" t="n">
-        <v>14.63827267348493</v>
+        <v>14.63827267348492</v>
       </c>
     </row>
     <row r="5">
@@ -12116,7 +12116,7 @@
         <v>-5.65</v>
       </c>
       <c r="J5" t="n">
-        <v>34.45659553585052</v>
+        <v>34.4565955358505</v>
       </c>
     </row>
     <row r="6">
@@ -12133,7 +12133,7 @@
         <v>8.42</v>
       </c>
       <c r="E6" t="n">
-        <v>5.907964353297746</v>
+        <v>5.907964353297751</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -12146,7 +12146,7 @@
         <v>-6.59</v>
       </c>
       <c r="J6" t="n">
-        <v>-35.98150129646516</v>
+        <v>-35.98150129646518</v>
       </c>
     </row>
     <row r="7">
@@ -12223,7 +12223,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>3.651664031954069</v>
+        <v>3.651664031954071</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
@@ -12283,7 +12283,7 @@
         <v>7.82</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.937242717246813</v>
+        <v>-9.937242717246804</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
@@ -12296,7 +12296,7 @@
         <v>-6.59</v>
       </c>
       <c r="J11" t="n">
-        <v>-13.41426632911874</v>
+        <v>-13.41426632911876</v>
       </c>
     </row>
     <row r="12">
@@ -12313,7 +12313,7 @@
         <v>7.73</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.858786347256525</v>
+        <v>-2.858786347256521</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
@@ -12326,7 +12326,7 @@
         <v>-5.96</v>
       </c>
       <c r="J12" t="n">
-        <v>-35.71882328844347</v>
+        <v>-35.71882328844348</v>
       </c>
     </row>
     <row r="13">
@@ -12343,7 +12343,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.184390202253085</v>
+        <v>-3.184390202253082</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
@@ -12356,7 +12356,7 @@
         <v>-5.41</v>
       </c>
       <c r="J13" t="n">
-        <v>45.14246595684492</v>
+        <v>45.1424659568449</v>
       </c>
     </row>
     <row r="14">
@@ -12373,7 +12373,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.165070363371822</v>
+        <v>-7.165070363371815</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
@@ -12386,7 +12386,7 @@
         <v>-5.57</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.356740801056765</v>
+        <v>-2.356740801056773</v>
       </c>
     </row>
     <row r="15">
@@ -12403,7 +12403,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2197300896844565</v>
+        <v>-0.2197300896844542</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
@@ -12416,7 +12416,7 @@
         <v>-6.75</v>
       </c>
       <c r="J15" t="n">
-        <v>-24.29953650919185</v>
+        <v>-24.29953650919184</v>
       </c>
     </row>
     <row r="16">
@@ -12463,7 +12463,7 @@
         <v>8.15</v>
       </c>
       <c r="E17" t="n">
-        <v>13.98147567145454</v>
+        <v>13.98147567145455</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
@@ -12476,7 +12476,7 @@
         <v>-5.96</v>
       </c>
       <c r="J17" t="n">
-        <v>9.056527710809073</v>
+        <v>9.056527710809071</v>
       </c>
     </row>
     <row r="18">
@@ -12506,7 +12506,7 @@
         <v>-5.81</v>
       </c>
       <c r="J18" t="n">
-        <v>-33.75282023951011</v>
+        <v>-33.7528202395101</v>
       </c>
     </row>
     <row r="19">
@@ -12523,7 +12523,7 @@
         <v>8.52</v>
       </c>
       <c r="E19" t="n">
-        <v>5.170920936208939</v>
+        <v>5.170920936208942</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
@@ -12536,7 +12536,7 @@
         <v>-6.51</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.087986544194519</v>
+        <v>-1.087986544194531</v>
       </c>
     </row>
     <row r="20">
@@ -12553,7 +12553,7 @@
         <v>8.34</v>
       </c>
       <c r="E20" t="n">
-        <v>8.978183083516077</v>
+        <v>8.978183083516083</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
@@ -12583,7 +12583,7 @@
         <v>8.58</v>
       </c>
       <c r="E21" t="n">
-        <v>5.826073293835267</v>
+        <v>5.826073293835263</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
@@ -12613,7 +12613,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>7.924813365210638</v>
+        <v>7.924813365210628</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
@@ -12626,7 +12626,7 @@
         <v>-4.94</v>
       </c>
       <c r="J22" t="n">
-        <v>22.0373628093955</v>
+        <v>22.03736280939549</v>
       </c>
     </row>
     <row r="23">
@@ -12643,7 +12643,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>9.488357500685579</v>
+        <v>9.488357500685577</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
@@ -12656,7 +12656,7 @@
         <v>-6.51</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.4511536977967556</v>
+        <v>-0.4511536977967568</v>
       </c>
     </row>
     <row r="24">
@@ -12673,7 +12673,7 @@
         <v>7.97</v>
       </c>
       <c r="E24" t="n">
-        <v>2.686174266650987</v>
+        <v>2.686174266650996</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
@@ -12686,7 +12686,7 @@
         <v>-5.96</v>
       </c>
       <c r="J24" t="n">
-        <v>-4.70215808147709</v>
+        <v>-4.702158081477104</v>
       </c>
     </row>
     <row r="25">
@@ -12703,7 +12703,7 @@
         <v>7.56</v>
       </c>
       <c r="E25" t="n">
-        <v>5.243511444257563</v>
+        <v>5.243511444257565</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
@@ -12716,7 +12716,7 @@
         <v>-6.9</v>
       </c>
       <c r="J25" t="n">
-        <v>-5.579976702739967</v>
+        <v>-5.579976702739968</v>
       </c>
     </row>
     <row r="26">
@@ -12733,7 +12733,7 @@
         <v>6.92</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.994172038085658</v>
+        <v>-2.994172038085662</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
@@ -12746,7 +12746,7 @@
         <v>-6.04</v>
       </c>
       <c r="J26" t="n">
-        <v>2.650582961340565</v>
+        <v>2.650582961340563</v>
       </c>
     </row>
     <row r="27">
@@ -12806,7 +12806,7 @@
         <v>-4.86</v>
       </c>
       <c r="J28" t="n">
-        <v>8.90127205830488</v>
+        <v>8.901272058304887</v>
       </c>
     </row>
     <row r="29">
@@ -12823,7 +12823,7 @@
         <v>7.31</v>
       </c>
       <c r="E29" t="n">
-        <v>3.539202128077939</v>
+        <v>3.539202128077947</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
@@ -12836,7 +12836,7 @@
         <v>-4.71</v>
       </c>
       <c r="J29" t="n">
-        <v>-12.55793308559441</v>
+        <v>-12.55793308559443</v>
       </c>
     </row>
     <row r="30">
@@ -12853,7 +12853,7 @@
         <v>7.78</v>
       </c>
       <c r="E30" t="n">
-        <v>5.064983056972279</v>
+        <v>5.06498305697228</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
@@ -12866,7 +12866,7 @@
         <v>-4</v>
       </c>
       <c r="J30" t="n">
-        <v>-19.90225730460441</v>
+        <v>-19.9022573046044</v>
       </c>
     </row>
     <row r="31">
@@ -12883,7 +12883,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.7658998863923302</v>
+        <v>-0.7658998863923284</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
@@ -12896,7 +12896,7 @@
         <v>-3.84</v>
       </c>
       <c r="J31" t="n">
-        <v>6.076779979311413</v>
+        <v>6.076779979311419</v>
       </c>
     </row>
     <row r="32">
@@ -12913,7 +12913,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>6.588827027804099</v>
+        <v>6.588827027804097</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
@@ -12926,7 +12926,7 @@
         <v>-3.14</v>
       </c>
       <c r="J32" t="n">
-        <v>43.5692653842469</v>
+        <v>43.56926538424688</v>
       </c>
     </row>
     <row r="33">
@@ -12943,7 +12943,7 @@
         <v>8.27</v>
       </c>
       <c r="E33" t="n">
-        <v>-3.672984647115221</v>
+        <v>-3.672984647115222</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
@@ -12956,7 +12956,7 @@
         <v>-3.53</v>
       </c>
       <c r="J33" t="n">
-        <v>-39.78859437695565</v>
+        <v>-39.78859437695564</v>
       </c>
     </row>
     <row r="34">
@@ -12973,7 +12973,7 @@
         <v>7.85</v>
       </c>
       <c r="E34" t="n">
-        <v>4.500713753386171</v>
+        <v>4.500713753386176</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
@@ -12986,7 +12986,7 @@
         <v>-16.48</v>
       </c>
       <c r="J34" t="n">
-        <v>43.32498468436388</v>
+        <v>43.32498468436386</v>
       </c>
     </row>
     <row r="35">
@@ -13003,7 +13003,7 @@
         <v>52.75</v>
       </c>
       <c r="E35" t="n">
-        <v>3.512751556221622</v>
+        <v>3.512751556221627</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
@@ -13016,7 +13016,7 @@
         <v>7.06</v>
       </c>
       <c r="J35" t="n">
-        <v>-4.227744702150726</v>
+        <v>-4.227744702150731</v>
       </c>
     </row>
     <row r="36">
@@ -13033,7 +13033,7 @@
         <v>7.03</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.016949541402979</v>
+        <v>-2.016949541402978</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
@@ -13046,7 +13046,7 @@
         <v>-10.75</v>
       </c>
       <c r="J36" t="n">
-        <v>31.09434303657892</v>
+        <v>31.09434303657891</v>
       </c>
     </row>
     <row r="37">
@@ -13063,7 +13063,7 @@
         <v>14.64</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.498804593673622</v>
+        <v>-8.498804593673629</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
@@ -13123,7 +13123,7 @@
         <v>8.5</v>
       </c>
       <c r="E39" t="n">
-        <v>18.49310168558156</v>
+        <v>18.49310168558157</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
@@ -13136,7 +13136,7 @@
         <v>-2.2</v>
       </c>
       <c r="J39" t="n">
-        <v>14.971825049181</v>
+        <v>14.97182504918101</v>
       </c>
     </row>
     <row r="40">
@@ -13153,7 +13153,7 @@
         <v>6.6</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.8002012862210494</v>
+        <v>-0.8002012862210482</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
@@ -13166,7 +13166,7 @@
         <v>-7.3</v>
       </c>
       <c r="J40" t="n">
-        <v>-7.401383575559825</v>
+        <v>-7.40138357555982</v>
       </c>
     </row>
     <row r="41">
@@ -13183,7 +13183,7 @@
         <v>2.62</v>
       </c>
       <c r="E41" t="n">
-        <v>12.32173533844847</v>
+        <v>12.32173533844846</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
@@ -13226,7 +13226,7 @@
         <v>-5.02</v>
       </c>
       <c r="J42" t="n">
-        <v>32.61515023606693</v>
+        <v>32.61515023606692</v>
       </c>
     </row>
     <row r="43">
@@ -13243,7 +13243,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>-6.707256877284351</v>
+        <v>-6.707256877284348</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
@@ -13256,7 +13256,7 @@
         <v>-8.24</v>
       </c>
       <c r="J43" t="n">
-        <v>32.78745959448126</v>
+        <v>32.78745959448128</v>
       </c>
     </row>
     <row r="44">
@@ -13286,7 +13286,7 @@
         <v>-6.98</v>
       </c>
       <c r="J44" t="n">
-        <v>-12.91892461315373</v>
+        <v>-12.91892461315376</v>
       </c>
     </row>
     <row r="45">
@@ -13303,7 +13303,7 @@
         <v>9.85</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.116241260536963</v>
+        <v>-7.11624126053696</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
@@ -13316,7 +13316,7 @@
         <v>-5.81</v>
       </c>
       <c r="J45" t="n">
-        <v>3.109161712168384</v>
+        <v>3.109161712168376</v>
       </c>
     </row>
     <row r="46">
@@ -13346,7 +13346,7 @@
         <v>-6.59</v>
       </c>
       <c r="J46" t="n">
-        <v>11.27145692249281</v>
+        <v>11.27145692249282</v>
       </c>
     </row>
     <row r="47">
@@ -13363,7 +13363,7 @@
         <v>11.35</v>
       </c>
       <c r="E47" t="n">
-        <v>7.617976664529079</v>
+        <v>7.617976664529081</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
@@ -13376,7 +13376,7 @@
         <v>-11.53</v>
       </c>
       <c r="J47" t="n">
-        <v>17.70667066308825</v>
+        <v>17.70667066308824</v>
       </c>
     </row>
     <row r="48">
@@ -13393,7 +13393,7 @@
         <v>7.72</v>
       </c>
       <c r="E48" t="n">
-        <v>-6.458664835108643</v>
+        <v>-6.458664835108634</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
@@ -13423,7 +13423,7 @@
         <v>7.69</v>
       </c>
       <c r="E49" t="n">
-        <v>4.050449953231331</v>
+        <v>4.050449953231336</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
@@ -13436,7 +13436,7 @@
         <v>-5.33</v>
       </c>
       <c r="J49" t="n">
-        <v>6.127616866851547</v>
+        <v>6.127616866851551</v>
       </c>
     </row>
     <row r="50">
@@ -13483,7 +13483,7 @@
         <v>4.7</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5579678695337809</v>
+        <v>0.5579678695337832</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
@@ -13526,7 +13526,7 @@
         <v>-12.71</v>
       </c>
       <c r="J52" t="n">
-        <v>5.912748451273591</v>
+        <v>5.912748451273596</v>
       </c>
     </row>
     <row r="53">
@@ -13543,7 +13543,7 @@
         <v>8.4</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.657274238168096</v>
+        <v>-2.657274238168097</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
@@ -13556,7 +13556,7 @@
         <v>-7.37</v>
       </c>
       <c r="J53" t="n">
-        <v>2.629633769782746</v>
+        <v>2.629633769782748</v>
       </c>
     </row>
     <row r="54">
@@ -13573,7 +13573,7 @@
         <v>8.09</v>
       </c>
       <c r="E54" t="n">
-        <v>35.56077227726453</v>
+        <v>35.56077227726454</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
@@ -13603,7 +13603,7 @@
         <v>6.72</v>
       </c>
       <c r="E55" t="n">
-        <v>5.696671734649871</v>
+        <v>5.696671734649867</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
@@ -13663,7 +13663,7 @@
         <v>0.42</v>
       </c>
       <c r="E57" t="n">
-        <v>32.45780613800152</v>
+        <v>32.45780613800153</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
@@ -13693,7 +13693,7 @@
         <v>9.09</v>
       </c>
       <c r="E58" t="n">
-        <v>-27.56393784032502</v>
+        <v>-27.56393784032501</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
@@ -13723,7 +13723,7 @@
         <v>9.09</v>
       </c>
       <c r="E59" t="n">
-        <v>28.47434499578042</v>
+        <v>28.47434499578041</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
@@ -13736,7 +13736,7 @@
         <v>-1.1</v>
       </c>
       <c r="J59" t="n">
-        <v>25.59266315069665</v>
+        <v>25.59266315069664</v>
       </c>
     </row>
     <row r="60">
@@ -13753,7 +13753,7 @@
         <v>7.75</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.74577303158289</v>
+        <v>-13.7457730315829</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
@@ -13766,7 +13766,7 @@
         <v>-5.81</v>
       </c>
       <c r="J60" t="n">
-        <v>-1.817093579979352</v>
+        <v>-1.81709357997935</v>
       </c>
     </row>
     <row r="61">
@@ -13783,7 +13783,7 @@
         <v>21.53</v>
       </c>
       <c r="E61" t="n">
-        <v>4.705668355087191</v>
+        <v>4.705668355087187</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
@@ -13826,7 +13826,7 @@
         <v>-12.79</v>
       </c>
       <c r="J62" t="n">
-        <v>52.79022165598206</v>
+        <v>52.79022165598205</v>
       </c>
     </row>
     <row r="63">
@@ -13856,7 +13856,7 @@
         <v>-12.08</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3992689330822672</v>
+        <v>0.399268933082273</v>
       </c>
     </row>
     <row r="64">
@@ -13903,7 +13903,7 @@
         <v>1.44</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4215566537823156</v>
+        <v>0.4215566537823145</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
@@ -13933,7 +13933,7 @@
         <v>11.07</v>
       </c>
       <c r="E66" t="n">
-        <v>32.75399589573196</v>
+        <v>32.75399589573195</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
@@ -13946,7 +13946,7 @@
         <v>11.22</v>
       </c>
       <c r="J66" t="n">
-        <v>38.44957839006375</v>
+        <v>38.44957839006373</v>
       </c>
     </row>
     <row r="67">
@@ -13963,7 +13963,7 @@
         <v>-8.92</v>
       </c>
       <c r="E67" t="n">
-        <v>4.89166365832825</v>
+        <v>4.891663658328255</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
@@ -14006,7 +14006,7 @@
         <v>39.38</v>
       </c>
       <c r="J68" t="n">
-        <v>31.93486777785009</v>
+        <v>31.93486777785008</v>
       </c>
     </row>
     <row r="69">
@@ -14023,7 +14023,7 @@
         <v>2.49</v>
       </c>
       <c r="E69" t="n">
-        <v>-19.25422049993279</v>
+        <v>-19.25422049993278</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
@@ -14066,7 +14066,7 @@
         <v>24.09</v>
       </c>
       <c r="J70" t="n">
-        <v>-32.20488345638336</v>
+        <v>-32.20488345638335</v>
       </c>
     </row>
     <row r="71">
@@ -14156,7 +14156,7 @@
         <v>29.97</v>
       </c>
       <c r="J73" t="n">
-        <v>-47.85081555974777</v>
+        <v>-47.85081555974775</v>
       </c>
     </row>
     <row r="74">
@@ -14173,7 +14173,7 @@
         <v>6.59</v>
       </c>
       <c r="E74" t="n">
-        <v>-22.13903784833295</v>
+        <v>-22.13903784833296</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
@@ -14186,7 +14186,7 @@
         <v>13.89</v>
       </c>
       <c r="J74" t="n">
-        <v>18.55026960375786</v>
+        <v>18.55026960375787</v>
       </c>
     </row>
     <row r="75">
@@ -14203,7 +14203,7 @@
         <v>-1.15</v>
       </c>
       <c r="E75" t="n">
-        <v>23.96565430430917</v>
+        <v>23.96565430430916</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
@@ -14216,7 +14216,7 @@
         <v>5.73</v>
       </c>
       <c r="J75" t="n">
-        <v>-25.59078852368598</v>
+        <v>-25.59078852368597</v>
       </c>
     </row>
     <row r="76">
@@ -14233,7 +14233,7 @@
         <v>0.62</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.2851433947889562</v>
+        <v>-0.2851433947889608</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
@@ -14246,7 +14246,7 @@
         <v>-25.42</v>
       </c>
       <c r="J76" t="n">
-        <v>-63.77470895507687</v>
+        <v>-63.77470895507685</v>
       </c>
     </row>
     <row r="77">
@@ -14276,7 +14276,7 @@
         <v>-5.1</v>
       </c>
       <c r="J77" t="n">
-        <v>46.23923825964282</v>
+        <v>46.2392382596428</v>
       </c>
     </row>
     <row r="78">
@@ -14353,7 +14353,7 @@
         <v>3.51</v>
       </c>
       <c r="E80" t="n">
-        <v>3.569687384717671</v>
+        <v>3.569687384717657</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
@@ -14383,7 +14383,7 @@
         <v>-51.38</v>
       </c>
       <c r="E81" t="n">
-        <v>72.44788648903948</v>
+        <v>72.44788648903946</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
@@ -14396,7 +14396,7 @@
         <v>15.77</v>
       </c>
       <c r="J81" t="n">
-        <v>-20.28770985729124</v>
+        <v>-20.28770985729125</v>
       </c>
     </row>
     <row r="82">
@@ -14426,7 +14426,7 @@
         <v>8.08</v>
       </c>
       <c r="J82" t="n">
-        <v>9.910144695050356</v>
+        <v>9.910144695050343</v>
       </c>
     </row>
     <row r="83">
@@ -14456,7 +14456,7 @@
         <v>-87.63</v>
       </c>
       <c r="J83" t="n">
-        <v>73.67158347628975</v>
+        <v>73.67158347628977</v>
       </c>
     </row>
     <row r="84">
@@ -14486,7 +14486,7 @@
         <v>19.3</v>
       </c>
       <c r="J84" t="n">
-        <v>34.97921936613515</v>
+        <v>34.97921936613517</v>
       </c>
     </row>
     <row r="85">
@@ -14503,7 +14503,7 @@
         <v>29.96</v>
       </c>
       <c r="E85" t="n">
-        <v>21.49347768205875</v>
+        <v>21.49347768205874</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
@@ -14576,7 +14576,7 @@
         <v>-3.37</v>
       </c>
       <c r="J87" t="n">
-        <v>0.8056087409558559</v>
+        <v>0.8056087409558432</v>
       </c>
     </row>
     <row r="88">
@@ -14593,7 +14593,7 @@
         <v>61.15</v>
       </c>
       <c r="E88" t="n">
-        <v>44.12680965168186</v>
+        <v>44.12680965168184</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
@@ -14606,7 +14606,7 @@
         <v>26.67</v>
       </c>
       <c r="J88" t="n">
-        <v>-10.0445434735825</v>
+        <v>-10.04454347358249</v>
       </c>
     </row>
     <row r="89">
@@ -14636,7 +14636,7 @@
         <v>21.81</v>
       </c>
       <c r="J89" t="n">
-        <v>-86.45849267721047</v>
+        <v>-86.45849267721044</v>
       </c>
     </row>
     <row r="90">
@@ -14683,7 +14683,7 @@
         <v>30.89</v>
       </c>
       <c r="E91" t="n">
-        <v>-10.84769226759177</v>
+        <v>-10.84769226759175</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
@@ -14696,7 +14696,7 @@
         <v>-47.93</v>
       </c>
       <c r="J91" t="n">
-        <v>-35.72355052758436</v>
+        <v>-35.72355052758434</v>
       </c>
     </row>
     <row r="92">
@@ -14713,7 +14713,7 @@
         <v>-1.72</v>
       </c>
       <c r="E92" t="n">
-        <v>-17.68951229188722</v>
+        <v>-17.68951229188723</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
@@ -14726,7 +14726,7 @@
         <v>34.44</v>
       </c>
       <c r="J92" t="n">
-        <v>13.85138688811467</v>
+        <v>13.85138688811468</v>
       </c>
     </row>
     <row r="93">
@@ -14743,7 +14743,7 @@
         <v>89.79000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>60.67599635560089</v>
+        <v>60.67599635560088</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
@@ -14756,7 +14756,7 @@
         <v>46.52</v>
       </c>
       <c r="J93" t="n">
-        <v>17.25905698544031</v>
+        <v>17.2590569854403</v>
       </c>
     </row>
     <row r="94">
@@ -14773,7 +14773,7 @@
         <v>7.37</v>
       </c>
       <c r="E94" t="n">
-        <v>-19.28350544460813</v>
+        <v>-19.28350544460812</v>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
@@ -14803,7 +14803,7 @@
         <v>-2.96</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.494239203873117</v>
+        <v>-1.494239203873119</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
@@ -14846,7 +14846,7 @@
         <v>26.99</v>
       </c>
       <c r="J96" t="n">
-        <v>-21.50481901942059</v>
+        <v>-21.50481901942056</v>
       </c>
     </row>
     <row r="97">
@@ -14863,7 +14863,7 @@
         <v>-12.66</v>
       </c>
       <c r="E97" t="n">
-        <v>3.56230409000989</v>
+        <v>3.562304090009884</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
@@ -14906,7 +14906,7 @@
         <v>26.52</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09907804481254476</v>
+        <v>0.09907804481249882</v>
       </c>
     </row>
     <row r="99">
@@ -14936,7 +14936,7 @@
         <v>-31.54</v>
       </c>
       <c r="J99" t="n">
-        <v>-29.90069668739662</v>
+        <v>-29.90069668739661</v>
       </c>
     </row>
     <row r="100">
@@ -14966,7 +14966,7 @@
         <v>16.95</v>
       </c>
       <c r="J100" t="n">
-        <v>-18.2305734397904</v>
+        <v>-18.23057343979038</v>
       </c>
     </row>
     <row r="101">
@@ -14996,7 +14996,7 @@
         <v>-51.94</v>
       </c>
       <c r="J101" t="n">
-        <v>326.3371954902908</v>
+        <v>326.3371954902909</v>
       </c>
     </row>
     <row r="102">
@@ -15026,7 +15026,7 @@
         <v>22.91</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6297140795409407</v>
+        <v>0.6297140795409362</v>
       </c>
     </row>
     <row r="103">
@@ -15086,7 +15086,7 @@
         <v>12.4</v>
       </c>
       <c r="J104" t="n">
-        <v>-21.85987550433536</v>
+        <v>-21.85987550433534</v>
       </c>
     </row>
     <row r="105">
@@ -15163,7 +15163,7 @@
         <v>-4.77</v>
       </c>
       <c r="E107" t="n">
-        <v>-3.125613517523706</v>
+        <v>-3.125613517523705</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
@@ -15176,7 +15176,7 @@
         <v>7.22</v>
       </c>
       <c r="J107" t="n">
-        <v>-5.484751827248303</v>
+        <v>-5.484751827248299</v>
       </c>
     </row>
     <row r="108">
@@ -15266,7 +15266,7 @@
         <v>51.31</v>
       </c>
       <c r="J110" t="n">
-        <v>-7.902514118104654</v>
+        <v>-7.902514118104651</v>
       </c>
     </row>
     <row r="111">
@@ -15283,7 +15283,7 @@
         <v>20</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.9970372884838963</v>
+        <v>-0.9970372884839008</v>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
@@ -15313,7 +15313,7 @@
         <v>12.66</v>
       </c>
       <c r="E112" t="n">
-        <v>74.27978048908433</v>
+        <v>74.27978048908435</v>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
@@ -15356,7 +15356,7 @@
         <v>12.55</v>
       </c>
       <c r="J113" t="n">
-        <v>37.1156368740921</v>
+        <v>37.11563687409209</v>
       </c>
     </row>
     <row r="114">
@@ -15373,7 +15373,7 @@
         <v>4.55</v>
       </c>
       <c r="E114" t="n">
-        <v>1.947866403849721</v>
+        <v>1.947866403849726</v>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
@@ -15463,7 +15463,7 @@
         <v>-12.32</v>
       </c>
       <c r="E117" t="n">
-        <v>2.041582346615434</v>
+        <v>2.041582346615427</v>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
@@ -15476,7 +15476,7 @@
         <v>3.14</v>
       </c>
       <c r="J117" t="n">
-        <v>45.0343524289528</v>
+        <v>45.03435242895279</v>
       </c>
     </row>
     <row r="118">
@@ -15536,7 +15536,7 @@
         <v>4.55</v>
       </c>
       <c r="J119" t="n">
-        <v>-21.34309655997682</v>
+        <v>-21.34309655997679</v>
       </c>
     </row>
     <row r="120">
@@ -15566,7 +15566,7 @@
         <v>-150.16</v>
       </c>
       <c r="J120" t="n">
-        <v>59.87414359267311</v>
+        <v>59.87414359267312</v>
       </c>
     </row>
     <row r="121">
@@ -15626,7 +15626,7 @@
         <v>11.06</v>
       </c>
       <c r="J122" t="n">
-        <v>-60.0214852257909</v>
+        <v>-60.02148522579088</v>
       </c>
     </row>
     <row r="123">
@@ -15656,7 +15656,7 @@
         <v>-15.69</v>
       </c>
       <c r="J123" t="n">
-        <v>0.9070002133553409</v>
+        <v>0.9070002133553318</v>
       </c>
     </row>
     <row r="124">
@@ -15673,7 +15673,7 @@
         <v>5.86</v>
       </c>
       <c r="E124" t="n">
-        <v>42.19063740891775</v>
+        <v>42.19063740891774</v>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
@@ -15686,7 +15686,7 @@
         <v>-0.78</v>
       </c>
       <c r="J124" t="n">
-        <v>1.437675044749103</v>
+        <v>1.437675044749101</v>
       </c>
     </row>
     <row r="125">
@@ -15716,7 +15716,7 @@
         <v>27.38</v>
       </c>
       <c r="J125" t="n">
-        <v>4.368131436233964</v>
+        <v>4.368131436233966</v>
       </c>
     </row>
     <row r="126">
@@ -15733,7 +15733,7 @@
         <v>0.25</v>
       </c>
       <c r="E126" t="n">
-        <v>-4.807275002640986</v>
+        <v>-4.807275002640992</v>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
@@ -15823,7 +15823,7 @@
         <v>44.57</v>
       </c>
       <c r="E129" t="n">
-        <v>23.23566749653296</v>
+        <v>23.23566749653297</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
@@ -15836,7 +15836,7 @@
         <v>-13.73</v>
       </c>
       <c r="J129" t="n">
-        <v>6.958995877701127</v>
+        <v>6.958995877701128</v>
       </c>
     </row>
     <row r="130">
@@ -15866,7 +15866,7 @@
         <v>10.36</v>
       </c>
       <c r="J130" t="n">
-        <v>12.50496471718891</v>
+        <v>12.5049647171889</v>
       </c>
     </row>
     <row r="131">
@@ -15896,7 +15896,7 @@
         <v>12.63</v>
       </c>
       <c r="J131" t="n">
-        <v>49.71274181118219</v>
+        <v>49.71274181118217</v>
       </c>
     </row>
     <row r="132">
@@ -15943,7 +15943,7 @@
         <v>-41</v>
       </c>
       <c r="E133" t="n">
-        <v>13.73904652507578</v>
+        <v>13.73904652507577</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
@@ -15986,7 +15986,7 @@
         <v>27.3</v>
       </c>
       <c r="J134" t="n">
-        <v>-52.39611010677626</v>
+        <v>-52.39611010677622</v>
       </c>
     </row>
     <row r="135">
@@ -16003,7 +16003,7 @@
         <v>-3.21</v>
       </c>
       <c r="E135" t="n">
-        <v>9.490847924275643</v>
+        <v>9.49084792427564</v>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
@@ -16016,7 +16016,7 @@
         <v>-17.42</v>
       </c>
       <c r="J135" t="n">
-        <v>43.13232672678316</v>
+        <v>43.13232672678315</v>
       </c>
     </row>
     <row r="136">
@@ -16046,7 +16046,7 @@
         <v>-125.21</v>
       </c>
       <c r="J136" t="n">
-        <v>-47.04802616407979</v>
+        <v>-47.04802616407977</v>
       </c>
     </row>
     <row r="137">
@@ -16063,7 +16063,7 @@
         <v>21.22</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.573131835287123</v>
+        <v>-7.573131835287126</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
@@ -16076,7 +16076,7 @@
         <v>17.65</v>
       </c>
       <c r="J137" t="n">
-        <v>-17.12390522068198</v>
+        <v>-17.12390522068197</v>
       </c>
     </row>
     <row r="138">
@@ -16093,7 +16093,7 @@
         <v>2.72</v>
       </c>
       <c r="E138" t="n">
-        <v>-39.22248181221523</v>
+        <v>-39.22248181221524</v>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
@@ -16106,7 +16106,7 @@
         <v>-160.67</v>
       </c>
       <c r="J138" t="n">
-        <v>82.99548031294141</v>
+        <v>82.99548031294144</v>
       </c>
     </row>
     <row r="139">
@@ -16123,7 +16123,7 @@
         <v>-1.95</v>
       </c>
       <c r="E139" t="n">
-        <v>-23.09427331635994</v>
+        <v>-23.09427331635993</v>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
@@ -16136,7 +16136,7 @@
         <v>31.7</v>
       </c>
       <c r="J139" t="n">
-        <v>17.61831309558118</v>
+        <v>17.61831309558117</v>
       </c>
     </row>
     <row r="140">
@@ -16166,7 +16166,7 @@
         <v>63.15</v>
       </c>
       <c r="J140" t="n">
-        <v>-7.041020610750113</v>
+        <v>-7.041020610750123</v>
       </c>
     </row>
     <row r="141">
@@ -16196,7 +16196,7 @@
         <v>-81.98</v>
       </c>
       <c r="J141" t="n">
-        <v>6.891909973711835</v>
+        <v>6.891909973711831</v>
       </c>
     </row>
     <row r="142">
@@ -16226,7 +16226,7 @@
         <v>-5.26</v>
       </c>
       <c r="J142" t="n">
-        <v>9.978504281097631</v>
+        <v>9.978504281097621</v>
       </c>
     </row>
     <row r="143">
@@ -16243,7 +16243,7 @@
         <v>-37.7</v>
       </c>
       <c r="E143" t="n">
-        <v>-36.30740216090046</v>
+        <v>-36.30740216090047</v>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
@@ -16256,7 +16256,7 @@
         <v>26.99</v>
       </c>
       <c r="J143" t="n">
-        <v>28.00932865377745</v>
+        <v>28.00932865377744</v>
       </c>
     </row>
     <row r="144">
@@ -16286,7 +16286,7 @@
         <v>22.05</v>
       </c>
       <c r="J144" t="n">
-        <v>17.90175227796052</v>
+        <v>17.90175227796051</v>
       </c>
     </row>
     <row r="145">
@@ -16303,7 +16303,7 @@
         <v>37.24</v>
       </c>
       <c r="E145" t="n">
-        <v>89.68400234265137</v>
+        <v>89.68400234265138</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
@@ -16333,7 +16333,7 @@
         <v>13.28</v>
       </c>
       <c r="E146" t="n">
-        <v>-12.7161888132475</v>
+        <v>-12.71618881324749</v>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="n">
@@ -16376,7 +16376,7 @@
         <v>-160.67</v>
       </c>
       <c r="J147" t="n">
-        <v>-6.017267660968155</v>
+        <v>-6.01726766096816</v>
       </c>
     </row>
     <row r="148">
@@ -16423,7 +16423,7 @@
         <v>-7.3</v>
       </c>
       <c r="E149" t="n">
-        <v>-23.36776825891167</v>
+        <v>-23.36776825891166</v>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
@@ -16466,7 +16466,7 @@
         <v>-83.31999999999999</v>
       </c>
       <c r="J150" t="n">
-        <v>9.848111927024574</v>
+        <v>9.848111927024567</v>
       </c>
     </row>
     <row r="151">
@@ -16526,7 +16526,7 @@
         <v>-160.67</v>
       </c>
       <c r="J152" t="n">
-        <v>2.371310098057345</v>
+        <v>2.371310098057354</v>
       </c>
     </row>
     <row r="153">
@@ -16543,7 +16543,7 @@
         <v>-10.77</v>
       </c>
       <c r="E153" t="n">
-        <v>7.377392054770473</v>
+        <v>7.377392054770477</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
@@ -16556,7 +16556,7 @@
         <v>-153.61</v>
       </c>
       <c r="J153" t="n">
-        <v>-20.64679753396373</v>
+        <v>-20.64679753396372</v>
       </c>
     </row>
     <row r="154">
@@ -16603,7 +16603,7 @@
         <v>0.59</v>
       </c>
       <c r="E155" t="n">
-        <v>7.282019308498075</v>
+        <v>7.282019308498083</v>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
@@ -16633,7 +16633,7 @@
         <v>-26.39</v>
       </c>
       <c r="E156" t="n">
-        <v>8.220728863984901</v>
+        <v>8.220728863984903</v>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
@@ -16646,7 +16646,7 @@
         <v>32.32</v>
       </c>
       <c r="J156" t="n">
-        <v>10.1806570526903</v>
+        <v>10.18065705269029</v>
       </c>
     </row>
     <row r="157">
@@ -16676,7 +16676,7 @@
         <v>46.44</v>
       </c>
       <c r="J157" t="n">
-        <v>7.985571994976484</v>
+        <v>7.985571994976477</v>
       </c>
     </row>
     <row r="158">
@@ -16753,7 +16753,7 @@
         <v>27.33</v>
       </c>
       <c r="E160" t="n">
-        <v>28.92018555249083</v>
+        <v>28.92018555249082</v>
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
@@ -16813,7 +16813,7 @@
         <v>-30.04</v>
       </c>
       <c r="E162" t="n">
-        <v>16.76628027563691</v>
+        <v>16.76628027563692</v>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
@@ -16843,7 +16843,7 @@
         <v>-0.16</v>
       </c>
       <c r="E163" t="n">
-        <v>21.9752277672993</v>
+        <v>21.97522776729931</v>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="n">
@@ -16856,7 +16856,7 @@
         <v>23.22</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.4396306007128664</v>
+        <v>-0.4396306007128573</v>
       </c>
     </row>
     <row r="164">
@@ -16873,7 +16873,7 @@
         <v>9.1</v>
       </c>
       <c r="E164" t="n">
-        <v>-8.800697968178756</v>
+        <v>-8.800697968178754</v>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
@@ -16886,7 +16886,7 @@
         <v>18.12</v>
       </c>
       <c r="J164" t="n">
-        <v>-41.99576007408957</v>
+        <v>-41.99576007408958</v>
       </c>
     </row>
     <row r="165">
@@ -16916,7 +16916,7 @@
         <v>29.5</v>
       </c>
       <c r="J165" t="n">
-        <v>-8.285125284466467</v>
+        <v>-8.285125284466462</v>
       </c>
     </row>
     <row r="166">
@@ -16933,7 +16933,7 @@
         <v>20.32</v>
       </c>
       <c r="E166" t="n">
-        <v>12.60203039543198</v>
+        <v>12.60203039543197</v>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
@@ -16946,7 +16946,7 @@
         <v>-111.09</v>
       </c>
       <c r="J166" t="n">
-        <v>38.61558631603819</v>
+        <v>38.6155863160382</v>
       </c>
     </row>
     <row r="167">
@@ -16963,7 +16963,7 @@
         <v>-23.4</v>
       </c>
       <c r="E167" t="n">
-        <v>-5.278418389930111</v>
+        <v>-5.278418389930109</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
@@ -16993,7 +16993,7 @@
         <v>106.94</v>
       </c>
       <c r="E168" t="n">
-        <v>8.542727978225745</v>
+        <v>8.54272797822575</v>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
@@ -17006,7 +17006,7 @@
         <v>-160.67</v>
       </c>
       <c r="J168" t="n">
-        <v>-25.90789068570651</v>
+        <v>-25.90789068570649</v>
       </c>
     </row>
     <row r="169">
@@ -17023,7 +17023,7 @@
         <v>46.46</v>
       </c>
       <c r="E169" t="n">
-        <v>-4.280189591811096</v>
+        <v>-4.280189591811089</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
@@ -17053,7 +17053,7 @@
         <v>-1.24</v>
       </c>
       <c r="E170" t="n">
-        <v>-14.97054613467168</v>
+        <v>-14.97054613467167</v>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
@@ -17066,7 +17066,7 @@
         <v>18.44</v>
       </c>
       <c r="J170" t="n">
-        <v>-26.93940919088136</v>
+        <v>-26.93940919088133</v>
       </c>
     </row>
     <row r="171">
@@ -17083,7 +17083,7 @@
         <v>5.73</v>
       </c>
       <c r="E171" t="n">
-        <v>7.775293826985437</v>
+        <v>7.775293826985435</v>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
@@ -17113,7 +17113,7 @@
         <v>12.63</v>
       </c>
       <c r="E172" t="n">
-        <v>-14.11347413434216</v>
+        <v>-14.11347413434215</v>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
@@ -17126,7 +17126,7 @@
         <v>-3.84</v>
       </c>
       <c r="J172" t="n">
-        <v>8.672287955034339</v>
+        <v>8.67228795503433</v>
       </c>
     </row>
     <row r="173">
@@ -17143,7 +17143,7 @@
         <v>22.84</v>
       </c>
       <c r="E173" t="n">
-        <v>9.502557550174989</v>
+        <v>9.502557550174997</v>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
@@ -17156,7 +17156,7 @@
         <v>52.25</v>
       </c>
       <c r="J173" t="n">
-        <v>40.69498572465586</v>
+        <v>40.69498572465587</v>
       </c>
     </row>
     <row r="174">
@@ -17173,7 +17173,7 @@
         <v>35.4</v>
       </c>
       <c r="E174" t="n">
-        <v>7.183645819032518</v>
+        <v>7.18364581903252</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
@@ -17216,7 +17216,7 @@
         <v>-51.47</v>
       </c>
       <c r="J175" t="n">
-        <v>-26.03895548455619</v>
+        <v>-26.0389554845562</v>
       </c>
     </row>
     <row r="176">
@@ -17246,7 +17246,7 @@
         <v>12.24</v>
       </c>
       <c r="J176" t="n">
-        <v>2.152668131730622</v>
+        <v>2.152668131730631</v>
       </c>
     </row>
     <row r="177">
@@ -17263,7 +17263,7 @@
         <v>0.45</v>
       </c>
       <c r="E177" t="n">
-        <v>-6.539944246667093</v>
+        <v>-6.539944246667095</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
@@ -17276,7 +17276,7 @@
         <v>28.16</v>
       </c>
       <c r="J177" t="n">
-        <v>-14.55441946675793</v>
+        <v>-14.55441946675794</v>
       </c>
     </row>
     <row r="178">
@@ -17293,7 +17293,7 @@
         <v>7.82</v>
       </c>
       <c r="E178" t="n">
-        <v>-4.095765662559964</v>
+        <v>-4.09576566255996</v>
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
@@ -17306,7 +17306,7 @@
         <v>22.05</v>
       </c>
       <c r="J178" t="n">
-        <v>13.95706267792756</v>
+        <v>13.95706267792757</v>
       </c>
     </row>
     <row r="179">
@@ -17323,7 +17323,7 @@
         <v>-3.96</v>
       </c>
       <c r="E179" t="n">
-        <v>5.103833979334669</v>
+        <v>5.103833979334673</v>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="n">
@@ -17353,7 +17353,7 @@
         <v>5.52</v>
       </c>
       <c r="E180" t="n">
-        <v>-14.72059334229219</v>
+        <v>-14.7205933422922</v>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
@@ -17383,7 +17383,7 @@
         <v>5.22</v>
       </c>
       <c r="E181" t="n">
-        <v>1.82797027779352</v>
+        <v>1.827970277793524</v>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
@@ -17396,7 +17396,7 @@
         <v>-31.62</v>
       </c>
       <c r="J181" t="n">
-        <v>-0.5229209209716479</v>
+        <v>-0.5229209209716433</v>
       </c>
     </row>
     <row r="182">
@@ -17413,7 +17413,7 @@
         <v>14.54</v>
       </c>
       <c r="E182" t="n">
-        <v>-3.282330818216207</v>
+        <v>-3.282330818216205</v>
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
@@ -17443,7 +17443,7 @@
         <v>24.79</v>
       </c>
       <c r="E183" t="n">
-        <v>-6.804238781289535</v>
+        <v>-6.804238781289532</v>
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
@@ -17456,7 +17456,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="J183" t="n">
-        <v>1.495503183481605</v>
+        <v>1.495503183481601</v>
       </c>
     </row>
     <row r="184">
@@ -17486,7 +17486,7 @@
         <v>11.45</v>
       </c>
       <c r="J184" t="n">
-        <v>34.20734723377726</v>
+        <v>34.20734723377724</v>
       </c>
     </row>
     <row r="185">
@@ -17503,7 +17503,7 @@
         <v>-8.19</v>
       </c>
       <c r="E185" t="n">
-        <v>-23.22909858596375</v>
+        <v>-23.22909858596376</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
@@ -17516,7 +17516,7 @@
         <v>6.75</v>
       </c>
       <c r="J185" t="n">
-        <v>0.5390771961100054</v>
+        <v>0.5390771961100043</v>
       </c>
     </row>
     <row r="186">
@@ -17546,7 +17546,7 @@
         <v>-53.35</v>
       </c>
       <c r="J186" t="n">
-        <v>4.599764358989385</v>
+        <v>4.599764358989404</v>
       </c>
     </row>
     <row r="187">
@@ -17563,7 +17563,7 @@
         <v>16.94</v>
       </c>
       <c r="E187" t="n">
-        <v>-0.2512392865919161</v>
+        <v>-0.2512392865919204</v>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
@@ -17606,7 +17606,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="J188" t="n">
-        <v>4.823129089613222</v>
+        <v>4.823129089613224</v>
       </c>
     </row>
     <row r="189">
@@ -17636,7 +17636,7 @@
         <v>-7.53</v>
       </c>
       <c r="J189" t="n">
-        <v>-8.379794193438647</v>
+        <v>-8.379794193438654</v>
       </c>
     </row>
     <row r="190">
@@ -17683,7 +17683,7 @@
         <v>5.67</v>
       </c>
       <c r="E191" t="n">
-        <v>8.757109123498559</v>
+        <v>8.757109123498564</v>
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
@@ -17696,7 +17696,7 @@
         <v>-4.08</v>
       </c>
       <c r="J191" t="n">
-        <v>14.37887920329421</v>
+        <v>14.37887920329419</v>
       </c>
     </row>
     <row r="192">
@@ -17726,7 +17726,7 @@
         <v>-14.51</v>
       </c>
       <c r="J192" t="n">
-        <v>-8.884831673557718</v>
+        <v>-8.884831673557711</v>
       </c>
     </row>
     <row r="193">
@@ -17743,7 +17743,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>2.587114166131837</v>
+        <v>2.587114166131842</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
@@ -17773,7 +17773,7 @@
         <v>8.69</v>
       </c>
       <c r="E194" t="n">
-        <v>14.72413194354806</v>
+        <v>14.72413194354805</v>
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
@@ -17786,7 +17786,7 @@
         <v>-7.85</v>
       </c>
       <c r="J194" t="n">
-        <v>-21.02036561834253</v>
+        <v>-21.02036561834252</v>
       </c>
     </row>
     <row r="195">
@@ -17816,7 +17816,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="J195" t="n">
-        <v>-0.5870915959025793</v>
+        <v>-0.5870915959025839</v>
       </c>
     </row>
     <row r="196">
@@ -17863,7 +17863,7 @@
         <v>5.47</v>
       </c>
       <c r="E197" t="n">
-        <v>-4.410322526527259</v>
+        <v>-4.41032252652726</v>
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
@@ -17906,7 +17906,7 @@
         <v>-15.93</v>
       </c>
       <c r="J198" t="n">
-        <v>3.028309306050412</v>
+        <v>3.028309306050407</v>
       </c>
     </row>
     <row r="199">
@@ -17923,7 +17923,7 @@
         <v>10</v>
       </c>
       <c r="E199" t="n">
-        <v>4.916695274944191</v>
+        <v>4.916695274944193</v>
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
@@ -17936,7 +17936,7 @@
         <v>-8.16</v>
       </c>
       <c r="J199" t="n">
-        <v>6.834511049470302</v>
+        <v>6.834511049470293</v>
       </c>
     </row>
   </sheetData>
